--- a/Assets/DataProcessing/NASA results.xlsx
+++ b/Assets/DataProcessing/NASA results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4364AF4-FBB4-422B-ACDD-F254942678CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75148DC-2CE9-47B1-933C-53DE0E21D36A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" xr2:uid="{9F19923B-91C2-47BC-B5DD-C687093A0B9A}"/>
   </bookViews>
@@ -17,6 +17,53 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$AE$2:$AE$42</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$AE$2:$AE$42</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$X$12:$X$21</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$X$22:$X$31</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$X$2:$X$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$X$32:$X$42</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$Y$12:$Y$21</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$Y$22:$Y$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$Y$2:$Y$11</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$Y$2:$Y$42</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$Y$32:$Y$42</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$Y$12:$Y$21</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$Y$2:$Y$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$AE$2:$AE$42</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$Y$1:$AD$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="49">
   <si>
     <t>6</t>
   </si>
@@ -228,11 +275,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -248,6 +296,1707 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.35</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.33</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.34</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.36</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{73349534-8BE2-4B47-863F-3F846F031FDD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>SKPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000006-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>SKPad-Ov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000007-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>FanPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000008-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>FanPad-Ov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="900" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="70" min="20"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Rating</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="9" firstPageNumber="1" orientation="landscape" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.26</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.24</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{73349534-8BE2-4B47-863F-3F846F031FDD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>SKPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000006-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>SKPad-Ov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000007-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>FanPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000008-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>FanPad-Ov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="900" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="7" min="2"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Rating</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>339315</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>10311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>90546</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="图表 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADE0081-C154-46C7-B2C1-C5407AA9614B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12531315" y="7719958"/>
+              <a:ext cx="4546450" cy="3666117"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>572397</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>72615</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="图表 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85885CFF-2C9E-45A2-8F07-A0DB47DA2164}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7887597" y="7702027"/>
+              <a:ext cx="4385085" cy="3666117"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,11 +2298,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19793E4-070C-4B97-81ED-6A026E10A8D7}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE54" sqref="AE54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="24" max="24" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -720,31 +2472,31 @@
       <c r="W2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>7</v>
+      <c r="X2" s="2">
+        <v>2</v>
       </c>
       <c r="Y2" s="1">
-        <f>COUNTIF(I2:W2, $Y$1)</f>
+        <f t="shared" ref="Y2:Y42" si="0">COUNTIF(I2:W2, $Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <f>COUNTIF(J2:X2, $Z$1)</f>
+        <f t="shared" ref="Z2:Z32" si="1">COUNTIF(J2:X2, $Z$1)</f>
         <v>1</v>
       </c>
       <c r="AA2" s="1">
-        <f>COUNTIF(K2:Y2, AA$1)</f>
+        <f t="shared" ref="AA2:AA42" si="2">COUNTIF(K2:Y2, AA$1)</f>
         <v>4</v>
       </c>
       <c r="AB2" s="1">
-        <f>COUNTIF(L2:Z2, AB$1)</f>
+        <f t="shared" ref="AB2:AB42" si="3">COUNTIF(L2:Z2, AB$1)</f>
         <v>2</v>
       </c>
       <c r="AC2" s="1">
-        <f>COUNTIF(M2:AA2, AC$1)</f>
+        <f t="shared" ref="AC2:AC42" si="4">COUNTIF(M2:AA2, AC$1)</f>
         <v>3</v>
       </c>
       <c r="AD2" s="1">
-        <f t="shared" ref="AA2:AE17" si="0">COUNTIF(N2:AB2, AD$1)</f>
+        <f t="shared" ref="AD2:AD17" si="5">COUNTIF(N2:AB2, AD$1)</f>
         <v>2</v>
       </c>
       <c r="AE2" s="1">
@@ -825,31 +2577,31 @@
       <c r="W3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>6</v>
+      <c r="X3" s="2">
+        <v>3</v>
       </c>
       <c r="Y3" s="1">
-        <f>COUNTIF(I3:W3, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Z3" s="1">
-        <f>COUNTIF(J3:X3, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA3" s="1">
-        <f>COUNTIF(K3:Y3, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB3" s="1">
-        <f>COUNTIF(L3:Z3, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <f>COUNTIF(M3:AA3, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE3" s="1">
@@ -927,35 +2679,35 @@
       <c r="W4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>9</v>
+      <c r="X4" s="2">
+        <v>5</v>
       </c>
       <c r="Y4" s="1">
-        <f>COUNTIF(I4:W4, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z4" s="1">
-        <f>COUNTIF(J4:X4, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <f>COUNTIF(K4:Y4, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB4" s="1">
-        <f>COUNTIF(L4:Z4, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC4" s="1">
-        <f>COUNTIF(M4:AA4, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE4" s="1">
-        <f t="shared" ref="AE3:AE42" si="1">C4*Y4+D4*Z4+E4*AA4+F4*AB4+G4*AC4+(7-H4)*AD4</f>
+        <f t="shared" ref="AE4:AE42" si="6">C4*Y4+D4*Z4+E4*AA4+F4*AB4+G4*AC4+(7-H4)*AD4</f>
         <v>44</v>
       </c>
     </row>
@@ -1029,35 +2781,35 @@
       <c r="W5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>9</v>
+      <c r="X5" s="2">
+        <v>5</v>
       </c>
       <c r="Y5" s="1">
-        <f>COUNTIF(I5:W5, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z5" s="1">
-        <f>COUNTIF(J5:X5, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA5" s="1">
-        <f>COUNTIF(K5:Y5, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB5" s="1">
-        <f>COUNTIF(L5:Z5, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC5" s="1">
-        <f>COUNTIF(M5:AA5, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
     </row>
@@ -1131,35 +2883,35 @@
       <c r="W6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="1">
-        <f>COUNTIF(I6:W6, $Y$1)</f>
-        <v>2</v>
-      </c>
-      <c r="Z6" s="1">
-        <f>COUNTIF(J6:X6, $Z$1)</f>
-        <v>3</v>
-      </c>
-      <c r="AA6" s="1">
-        <f>COUNTIF(K6:Y6, AA$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AB6" s="1">
-        <f>COUNTIF(L6:Z6, AB$1)</f>
-        <v>4</v>
-      </c>
-      <c r="AC6" s="1">
-        <f>COUNTIF(M6:AA6, AC$1)</f>
-        <v>0</v>
-      </c>
       <c r="AD6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
@@ -1233,35 +2985,35 @@
       <c r="W7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>12</v>
+      <c r="X7" s="2">
+        <v>4</v>
       </c>
       <c r="Y7" s="1">
-        <f>COUNTIF(I7:W7, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z7" s="1">
-        <f>COUNTIF(J7:X7, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <f>COUNTIF(K7:Y7, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB7" s="1">
-        <f>COUNTIF(L7:Z7, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC7" s="1">
-        <f>COUNTIF(M7:AA7, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
     </row>
@@ -1335,35 +3087,35 @@
       <c r="W8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>9</v>
+      <c r="X8" s="2">
+        <v>5</v>
       </c>
       <c r="Y8" s="1">
-        <f>COUNTIF(I8:W8, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z8" s="1">
-        <f>COUNTIF(J8:X8, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <f>COUNTIF(K8:Y8, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB8" s="1">
-        <f>COUNTIF(L8:Z8, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC8" s="1">
-        <f>COUNTIF(M8:AA8, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
@@ -1437,35 +3189,35 @@
       <c r="W9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>9</v>
+      <c r="X9" s="2">
+        <v>5</v>
       </c>
       <c r="Y9" s="1">
-        <f>COUNTIF(I9:W9, $Y$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <f>COUNTIF(J9:X9, $Z$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AA9" s="1">
-        <f>COUNTIF(K9:Y9, AA$1)</f>
-        <v>5</v>
-      </c>
-      <c r="AB9" s="1">
-        <f>COUNTIF(L9:Z9, AB$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AC9" s="1">
-        <f>COUNTIF(M9:AA9, AC$1)</f>
-        <v>3</v>
-      </c>
-      <c r="AD9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC9" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AD9" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AE9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
     </row>
@@ -1539,35 +3291,35 @@
       <c r="W10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="X10" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="1">
-        <f>COUNTIF(I10:W10, $Y$1)</f>
-        <v>0</v>
-      </c>
       <c r="Z10" s="1">
-        <f>COUNTIF(J10:X10, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA10" s="1">
-        <f>COUNTIF(K10:Y10, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB10" s="1">
-        <f>COUNTIF(L10:Z10, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC10" s="1">
-        <f>COUNTIF(M10:AA10, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
     </row>
@@ -1641,35 +3393,35 @@
       <c r="W11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>9</v>
+      <c r="X11" s="2">
+        <v>5</v>
       </c>
       <c r="Y11" s="1">
-        <f>COUNTIF(I11:W11, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z11" s="1">
-        <f>COUNTIF(J11:X11, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA11" s="1">
-        <f>COUNTIF(K11:Y11, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB11" s="1">
-        <f>COUNTIF(L11:Z11, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC11" s="1">
-        <f>COUNTIF(M11:AA11, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
     </row>
@@ -1743,35 +3495,35 @@
       <c r="W12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>6</v>
+      <c r="X12" s="2">
+        <v>3</v>
       </c>
       <c r="Y12" s="1">
-        <f>COUNTIF(I12:W12, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z12" s="1">
-        <f>COUNTIF(J12:X12, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <f>COUNTIF(K12:Y12, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB12" s="1">
-        <f>COUNTIF(L12:Z12, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC12" s="1">
-        <f>COUNTIF(M12:AA12, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="AF12">
@@ -1848,35 +3600,35 @@
       <c r="W13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="1">
-        <f>COUNTIF(I13:W13, $Y$1)</f>
-        <v>4</v>
-      </c>
-      <c r="Z13" s="1">
-        <f>COUNTIF(J13:X13, $Z$1)</f>
-        <v>0</v>
-      </c>
       <c r="AA13" s="1">
-        <f>COUNTIF(K13:Y13, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB13" s="1">
-        <f>COUNTIF(L13:Z13, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC13" s="1">
-        <f>COUNTIF(M13:AA13, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
     </row>
@@ -1950,35 +3702,35 @@
       <c r="W14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>9</v>
+      <c r="X14" s="2">
+        <v>5</v>
       </c>
       <c r="Y14" s="1">
-        <f>COUNTIF(I14:W14, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <f>COUNTIF(J14:X14, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA14" s="1">
-        <f>COUNTIF(K14:Y14, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB14" s="1">
-        <f>COUNTIF(L14:Z14, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC14" s="1">
-        <f>COUNTIF(M14:AA14, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
@@ -2052,35 +3804,35 @@
       <c r="W15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>9</v>
+      <c r="X15" s="2">
+        <v>5</v>
       </c>
       <c r="Y15" s="1">
-        <f>COUNTIF(I15:W15, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z15" s="1">
-        <f>COUNTIF(J15:X15, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA15" s="1">
-        <f>COUNTIF(K15:Y15, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB15" s="1">
-        <f>COUNTIF(L15:Z15, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC15" s="1">
-        <f>COUNTIF(M15:AA15, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
     </row>
@@ -2154,35 +3906,35 @@
       <c r="W16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="X16" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AC16" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="1">
-        <f>COUNTIF(I16:W16, $Y$1)</f>
-        <v>2</v>
-      </c>
-      <c r="Z16" s="1">
-        <f>COUNTIF(J16:X16, $Z$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AA16" s="1">
-        <f>COUNTIF(K16:Y16, AA$1)</f>
-        <v>3</v>
-      </c>
-      <c r="AB16" s="1">
-        <f>COUNTIF(L16:Z16, AB$1)</f>
-        <v>4</v>
-      </c>
-      <c r="AC16" s="1">
-        <f>COUNTIF(M16:AA16, AC$1)</f>
-        <v>0</v>
-      </c>
       <c r="AD16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
     </row>
@@ -2256,35 +4008,35 @@
       <c r="W17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>6</v>
+      <c r="X17" s="2">
+        <v>3</v>
       </c>
       <c r="Y17" s="1">
-        <f>COUNTIF(I17:W17, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z17" s="1">
-        <f>COUNTIF(J17:X17, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <f>COUNTIF(K17:Y17, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB17" s="1">
-        <f>COUNTIF(L17:Z17, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC17" s="1">
-        <f>COUNTIF(M17:AA17, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
@@ -2358,35 +4110,35 @@
       <c r="W18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>9</v>
+      <c r="X18" s="2">
+        <v>5</v>
       </c>
       <c r="Y18" s="1">
-        <f>COUNTIF(I18:W18, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z18" s="1">
-        <f>COUNTIF(J18:X18, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA18" s="1">
-        <f>COUNTIF(K18:Y18, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB18" s="1">
-        <f>COUNTIF(L18:Z18, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC18" s="1">
-        <f>COUNTIF(M18:AA18, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" ref="AD18:AD42" si="2">COUNTIF(N18:AB18, AD$1)</f>
+        <f t="shared" ref="AD18:AD42" si="7">COUNTIF(N18:AB18, AD$1)</f>
         <v>1</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
@@ -2460,35 +4212,35 @@
       <c r="W19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>9</v>
+      <c r="X19" s="2">
+        <v>5</v>
       </c>
       <c r="Y19" s="1">
-        <f>COUNTIF(I19:W19, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <f>COUNTIF(J19:X19, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA19" s="1">
-        <f>COUNTIF(K19:Y19, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB19" s="1">
-        <f>COUNTIF(L19:Z19, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC19" s="1">
-        <f>COUNTIF(M19:AA19, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
     </row>
@@ -2562,35 +4314,35 @@
       <c r="W20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>15</v>
+      <c r="X20" s="2">
+        <v>7</v>
       </c>
       <c r="Y20" s="1">
-        <f>COUNTIF(I20:W20, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <f>COUNTIF(J20:X20, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA20" s="1">
-        <f>COUNTIF(K20:Y20, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB20" s="1">
-        <f>COUNTIF(L20:Z20, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC20" s="1">
-        <f>COUNTIF(M20:AA20, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
     </row>
@@ -2664,35 +4416,35 @@
       <c r="W21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="X21" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC21" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="1">
-        <f>COUNTIF(I21:W21, $Y$1)</f>
-        <v>4</v>
-      </c>
-      <c r="Z21" s="1">
-        <f>COUNTIF(J21:X21, $Z$1)</f>
-        <v>3</v>
-      </c>
-      <c r="AA21" s="1">
-        <f>COUNTIF(K21:Y21, AA$1)</f>
-        <v>5</v>
-      </c>
-      <c r="AB21" s="1">
-        <f>COUNTIF(L21:Z21, AB$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AC21" s="1">
-        <f>COUNTIF(M21:AA21, AC$1)</f>
+      <c r="AD21" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AE21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
     </row>
@@ -2766,35 +4518,35 @@
       <c r="W22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="X22" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="1">
-        <f>COUNTIF(I22:W22, $Y$1)</f>
-        <v>0</v>
-      </c>
       <c r="Z22" s="1">
-        <f>COUNTIF(J22:X22, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA22" s="1">
-        <f>COUNTIF(K22:Y22, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB22" s="1">
-        <f>COUNTIF(L22:Z22, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC22" s="1">
-        <f>COUNTIF(M22:AA22, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AF22">
@@ -2871,35 +4623,35 @@
       <c r="W23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X23" s="1" t="s">
-        <v>0</v>
+      <c r="X23" s="2">
+        <v>6</v>
       </c>
       <c r="Y23" s="1">
-        <f>COUNTIF(I23:W23, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z23" s="1">
-        <f>COUNTIF(J23:X23, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA23" s="1">
-        <f>COUNTIF(K23:Y23, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB23" s="1">
-        <f>COUNTIF(L23:Z23, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC23" s="1">
-        <f>COUNTIF(M23:AA23, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
     </row>
@@ -2973,35 +4725,35 @@
       <c r="W24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="X24" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="1">
-        <f>COUNTIF(I24:W24, $Y$1)</f>
-        <v>0</v>
-      </c>
       <c r="Z24" s="1">
-        <f>COUNTIF(J24:X24, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA24" s="1">
-        <f>COUNTIF(K24:Y24, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB24" s="1">
-        <f>COUNTIF(L24:Z24, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC24" s="1">
-        <f>COUNTIF(M24:AA24, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
     </row>
@@ -3075,35 +4827,35 @@
       <c r="W25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X25" s="1" t="s">
-        <v>9</v>
+      <c r="X25" s="2">
+        <v>5</v>
       </c>
       <c r="Y25" s="1">
-        <f>COUNTIF(I25:W25, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z25" s="1">
-        <f>COUNTIF(J25:X25, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA25" s="1">
-        <f>COUNTIF(K25:Y25, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB25" s="1">
-        <f>COUNTIF(L25:Z25, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC25" s="1">
-        <f>COUNTIF(M25:AA25, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
     </row>
@@ -3177,35 +4929,35 @@
       <c r="W26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X26" s="1" t="s">
-        <v>12</v>
+      <c r="X26" s="2">
+        <v>4</v>
       </c>
       <c r="Y26" s="1">
-        <f>COUNTIF(I26:W26, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z26" s="1">
-        <f>COUNTIF(J26:X26, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA26" s="1">
-        <f>COUNTIF(K26:Y26, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB26" s="1">
-        <f>COUNTIF(L26:Z26, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AC26" s="1">
-        <f>COUNTIF(M26:AA26, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
     </row>
@@ -3279,35 +5031,35 @@
       <c r="W27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="X27" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="1">
-        <f>COUNTIF(I27:W27, $Y$1)</f>
-        <v>2</v>
-      </c>
-      <c r="Z27" s="1">
-        <f>COUNTIF(J27:X27, $Z$1)</f>
-        <v>0</v>
-      </c>
       <c r="AA27" s="1">
-        <f>COUNTIF(K27:Y27, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB27" s="1">
-        <f>COUNTIF(L27:Z27, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC27" s="1">
-        <f>COUNTIF(M27:AA27, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
     </row>
@@ -3381,35 +5133,35 @@
       <c r="W28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X28" s="1" t="s">
-        <v>9</v>
+      <c r="X28" s="2">
+        <v>5</v>
       </c>
       <c r="Y28" s="1">
-        <f>COUNTIF(I28:W28, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z28" s="1">
-        <f>COUNTIF(J28:X28, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <f>COUNTIF(K28:Y28, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB28" s="1">
-        <f>COUNTIF(L28:Z28, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC28" s="1">
-        <f>COUNTIF(M28:AA28, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
@@ -3483,35 +5235,35 @@
       <c r="W29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="X29" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="1">
-        <f>COUNTIF(I29:W29, $Y$1)</f>
+      <c r="Z29" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA29" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AB29" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC29" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AD29" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="1">
-        <f>COUNTIF(J29:X29, $Z$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AA29" s="1">
-        <f>COUNTIF(K29:Y29, AA$1)</f>
-        <v>4</v>
-      </c>
-      <c r="AB29" s="1">
-        <f>COUNTIF(L29:Z29, AB$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AC29" s="1">
-        <f>COUNTIF(M29:AA29, AC$1)</f>
-        <v>3</v>
-      </c>
-      <c r="AD29" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AE29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
     </row>
@@ -3585,35 +5337,35 @@
       <c r="W30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="X30" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="1">
-        <f>COUNTIF(I30:W30, $Y$1)</f>
-        <v>0</v>
-      </c>
       <c r="Z30" s="1">
-        <f>COUNTIF(J30:X30, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA30" s="1">
-        <f>COUNTIF(K30:Y30, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB30" s="1">
-        <f>COUNTIF(L30:Z30, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC30" s="1">
-        <f>COUNTIF(M30:AA30, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
     </row>
@@ -3687,35 +5439,35 @@
       <c r="W31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X31" s="1" t="s">
-        <v>9</v>
+      <c r="X31" s="2">
+        <v>5</v>
       </c>
       <c r="Y31" s="1">
-        <f>COUNTIF(I31:W31, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Z31" s="1">
-        <f>COUNTIF(J31:X31, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA31" s="1">
-        <f>COUNTIF(K31:Y31, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB31" s="1">
-        <f>COUNTIF(L31:Z31, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC31" s="1">
-        <f>COUNTIF(M31:AA31, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
@@ -3789,35 +5541,35 @@
       <c r="W32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X32" s="1" t="s">
-        <v>9</v>
+      <c r="X32" s="2">
+        <v>5</v>
       </c>
       <c r="Y32" s="1">
-        <f>COUNTIF(I32:W32, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <f>COUNTIF(J32:X32, Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA32" s="1">
-        <f>COUNTIF(K32:Y32, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB32" s="1">
-        <f>COUNTIF(L32:Z32, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC32" s="1">
-        <f>COUNTIF(M32:AA32, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="AF32">
@@ -3894,35 +5646,35 @@
       <c r="W33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X33" s="1" t="s">
+      <c r="X33" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y33" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="1">
-        <f>COUNTIF(I33:W33, $Y$1)</f>
-        <v>0</v>
-      </c>
       <c r="Z33" s="1">
-        <f>COUNTIF(J33:X33, $Z$1)</f>
+        <f t="shared" ref="Z33:Z42" si="8">COUNTIF(J33:X33, $Z$1)</f>
         <v>1</v>
       </c>
       <c r="AA33" s="1">
-        <f>COUNTIF(K33:Y33, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB33" s="1">
-        <f>COUNTIF(L33:Z33, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC33" s="1">
-        <f>COUNTIF(M33:AA33, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
     </row>
@@ -3996,35 +5748,35 @@
       <c r="W34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X34" s="1" t="s">
+      <c r="X34" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y34" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="1">
-        <f>COUNTIF(I34:W34, $Y$1)</f>
-        <v>1</v>
-      </c>
-      <c r="Z34" s="1">
-        <f>COUNTIF(J34:X34, $Z$1)</f>
-        <v>0</v>
-      </c>
       <c r="AA34" s="1">
-        <f>COUNTIF(K34:Y34, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB34" s="1">
-        <f>COUNTIF(L34:Z34, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC34" s="1">
-        <f>COUNTIF(M34:AA34, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
     </row>
@@ -4098,35 +5850,35 @@
       <c r="W35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="X35" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y35" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA35" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AB35" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC35" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="1">
-        <f>COUNTIF(I35:W35, $Y$1)</f>
-        <v>4</v>
-      </c>
-      <c r="Z35" s="1">
-        <f>COUNTIF(J35:X35, $Z$1)</f>
-        <v>1</v>
-      </c>
-      <c r="AA35" s="1">
-        <f>COUNTIF(K35:Y35, AA$1)</f>
-        <v>3</v>
-      </c>
-      <c r="AB35" s="1">
-        <f>COUNTIF(L35:Z35, AB$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AC35" s="1">
-        <f>COUNTIF(M35:AA35, AC$1)</f>
-        <v>0</v>
-      </c>
       <c r="AD35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
     </row>
@@ -4200,35 +5952,35 @@
       <c r="W36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X36" s="1" t="s">
-        <v>12</v>
+      <c r="X36" s="2">
+        <v>4</v>
       </c>
       <c r="Y36" s="1">
-        <f>COUNTIF(I36:W36, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z36" s="1">
-        <f>COUNTIF(J36:X36, $Z$1)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AA36" s="1">
-        <f>COUNTIF(K36:Y36, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB36" s="1">
-        <f>COUNTIF(L36:Z36, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC36" s="1">
-        <f>COUNTIF(M36:AA36, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
     </row>
@@ -4302,35 +6054,35 @@
       <c r="W37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X37" s="1" t="s">
-        <v>9</v>
+      <c r="X37" s="2">
+        <v>5</v>
       </c>
       <c r="Y37" s="1">
-        <f>COUNTIF(I37:W37, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z37" s="1">
-        <f>COUNTIF(J37:X37, $Z$1)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA37" s="1">
-        <f>COUNTIF(K37:Y37, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB37" s="1">
-        <f>COUNTIF(L37:Z37, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC37" s="1">
-        <f>COUNTIF(M37:AA37, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
     </row>
@@ -4404,35 +6156,35 @@
       <c r="W38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X38" s="1" t="s">
+      <c r="X38" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y38" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="1">
-        <f>COUNTIF(I38:W38, $Y$1)</f>
-        <v>1</v>
-      </c>
-      <c r="Z38" s="1">
-        <f>COUNTIF(J38:X38, $Z$1)</f>
-        <v>0</v>
-      </c>
       <c r="AA38" s="1">
-        <f>COUNTIF(K38:Y38, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB38" s="1">
-        <f>COUNTIF(L38:Z38, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC38" s="1">
-        <f>COUNTIF(M38:AA38, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -4506,35 +6258,35 @@
       <c r="W39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X39" s="1" t="s">
-        <v>9</v>
+      <c r="X39" s="2">
+        <v>5</v>
       </c>
       <c r="Y39" s="1">
-        <f>COUNTIF(I39:W39, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z39" s="1">
-        <f>COUNTIF(J39:X39, $Z$1)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AA39" s="1">
-        <f>COUNTIF(K39:Y39, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB39" s="1">
-        <f>COUNTIF(L39:Z39, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC39" s="1">
-        <f>COUNTIF(M39:AA39, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
@@ -4608,35 +6360,35 @@
       <c r="W40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="X40" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="1">
-        <f>COUNTIF(I40:W40, $Y$1)</f>
-        <v>0</v>
-      </c>
       <c r="Z40" s="1">
-        <f>COUNTIF(J40:X40, $Z$1)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AA40" s="1">
-        <f>COUNTIF(K40:Y40, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB40" s="1">
-        <f>COUNTIF(L40:Z40, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC40" s="1">
-        <f>COUNTIF(M40:AA40, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AE40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
     </row>
@@ -4710,35 +6462,35 @@
       <c r="W41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X41" s="1" t="s">
+      <c r="X41" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y41" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="1">
-        <f>COUNTIF(I41:W41, $Y$1)</f>
-        <v>0</v>
-      </c>
       <c r="Z41" s="1">
-        <f>COUNTIF(J41:X41, $Z$1)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AA41" s="1">
-        <f>COUNTIF(K41:Y41, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB41" s="1">
-        <f>COUNTIF(L41:Z41, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC41" s="1">
-        <f>COUNTIF(M41:AA41, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -4812,35 +6564,35 @@
       <c r="W42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="X42" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y42" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Z42" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AA42" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AB42" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC42" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="1">
-        <f>COUNTIF(I42:W42, $Y$1)</f>
-        <v>5</v>
-      </c>
-      <c r="Z42" s="1">
-        <f>COUNTIF(J42:X42, $Z$1)</f>
-        <v>4</v>
-      </c>
-      <c r="AA42" s="1">
-        <f>COUNTIF(K42:Y42, AA$1)</f>
-        <v>3</v>
-      </c>
-      <c r="AB42" s="1">
-        <f>COUNTIF(L42:Z42, AB$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AC42" s="1">
-        <f>COUNTIF(M42:AA42, AC$1)</f>
+      <c r="AD42" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD42" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AE42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
     </row>
@@ -4852,5 +6604,6 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/DataProcessing/NASA results.xlsx
+++ b/Assets/DataProcessing/NASA results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75148DC-2CE9-47B1-933C-53DE0E21D36A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B86909C-4664-4D32-82A8-8359B67D76D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" xr2:uid="{9F19923B-91C2-47BC-B5DD-C687093A0B9A}"/>
   </bookViews>
@@ -19,51 +19,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$1</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$AE$2:$AE$42</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$AE$2:$AE$42</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$AE$32:$AE$41</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$X$12:$X$21</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$X$22:$X$31</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$X$2:$X$11</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$X$32:$X$41</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$X$12:$X$21</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$X$22:$X$31</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$X$32:$X$42</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$Y$12:$Y$21</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$Y$22:$Y$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$Y$2:$Y$11</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$Y$2:$Y$42</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$Y$32:$Y$42</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$Y$12:$Y$21</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$Y$2:$Y$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$AE$2:$AE$42</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$AE$32:$AE$42</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$Y$1:$AD$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AE$32:$AE$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$X$12:$X$21</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$X$22:$X$31</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$X$2:$X$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$X$32:$X$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="76">
   <si>
     <t>6</t>
   </si>
@@ -231,6 +200,91 @@
   <si>
     <t>zby</t>
   </si>
+  <si>
+    <t>SKPad</t>
+  </si>
+  <si>
+    <t>SKPad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FanPad</t>
+  </si>
+  <si>
+    <t>FanPad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nocrossover</t>
+  </si>
+  <si>
+    <t>nocrossover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossover</t>
+  </si>
+  <si>
+    <t>crossover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方差分析：可重复双因素分析</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>观测数</t>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>方差</t>
+  </si>
+  <si>
+    <t>方差分析</t>
+  </si>
+  <si>
+    <t>差异源</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>样本</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
+    <t>交互</t>
+  </si>
+  <si>
+    <t>内部</t>
+  </si>
 </sst>
 </file>
 
@@ -261,12 +315,41 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -275,12 +358,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -303,22 +398,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.36</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -506,7 +601,7 @@
   <cx:printSettings>
     <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
     <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <cx:pageSetup paperSize="9" firstPageNumber="1" orientation="landscape" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   </cx:printSettings>
 </cx:chartSpace>
 </file>
@@ -516,22 +611,448 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{73349534-8BE2-4B47-863F-3F846F031FDD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>SKPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000006-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>SKPad-Ov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000007-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>FanPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000008-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>FanPad-Ov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="900" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="7" min="2"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Rating</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{73349534-8BE2-4B47-863F-3F846F031FDD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>SKPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000006-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>SKPad-Ov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000007-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>FanPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000008-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>FanPad-Ov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="900" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="70" min="20"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Rating</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -804,6 +1325,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -1834,19 +2435,1049 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>339315</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>10311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>90546</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1885,8 +3516,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12531315" y="7719958"/>
-              <a:ext cx="4546450" cy="3666117"/>
+              <a:off x="12531315" y="7394091"/>
+              <a:ext cx="4546450" cy="3600675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1920,13 +3551,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>572397</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>171674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>80682</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>72615</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1965,7 +3596,167 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7887597" y="7702027"/>
+              <a:off x="7887597" y="7380194"/>
+              <a:ext cx="4385085" cy="3596641"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>339315</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>10311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>90546</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="图表 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27990562-8C3B-477C-A19A-174627491559}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12531315" y="7540664"/>
+              <a:ext cx="4546450" cy="3666117"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>572397</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>72615</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="图表 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA5B8B2-066C-4FAB-AA36-116E5E343C17}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7887597" y="7522733"/>
               <a:ext cx="4385085" cy="3666117"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2296,10 +4087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19793E4-070C-4B97-81ED-6A026E10A8D7}">
-  <dimension ref="A1:AF42"/>
+  <dimension ref="A1:AW53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE54" sqref="AE54"/>
+    <sheetView tabSelected="1" topLeftCell="N25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK66" sqref="AK66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2307,7 +4098,7 @@
     <col min="24" max="24" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2401,8 +4192,20 @@
       <c r="AE1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="AI1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -2476,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="Y2" s="1">
-        <f t="shared" ref="Y2:Y42" si="0">COUNTIF(I2:W2, $Y$1)</f>
+        <f t="shared" ref="Y2:Y41" si="0">COUNTIF(I2:W2, $Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="1">
@@ -2484,15 +4287,15 @@
         <v>1</v>
       </c>
       <c r="AA2" s="1">
-        <f t="shared" ref="AA2:AA42" si="2">COUNTIF(K2:Y2, AA$1)</f>
+        <f t="shared" ref="AA2:AA41" si="2">COUNTIF(K2:Y2, AA$1)</f>
         <v>4</v>
       </c>
       <c r="AB2" s="1">
-        <f t="shared" ref="AB2:AB42" si="3">COUNTIF(L2:Z2, AB$1)</f>
+        <f t="shared" ref="AB2:AB41" si="3">COUNTIF(L2:Z2, AB$1)</f>
         <v>2</v>
       </c>
       <c r="AC2" s="1">
-        <f t="shared" ref="AC2:AC42" si="4">COUNTIF(M2:AA2, AC$1)</f>
+        <f t="shared" ref="AC2:AC41" si="4">COUNTIF(M2:AA2, AC$1)</f>
         <v>3</v>
       </c>
       <c r="AD2" s="1">
@@ -2506,8 +4309,26 @@
       <c r="AF2">
         <v>37.700000000000003</v>
       </c>
+      <c r="AH2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2">
+        <v>40</v>
+      </c>
+      <c r="AJ2">
+        <v>20</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2608,8 +4429,20 @@
         <f>C3*Y3+D3*Z3+E3*AA3+F3*AB3+G3*AC3+(7-H3)*AD3</f>
         <v>44</v>
       </c>
+      <c r="AI3">
+        <v>44</v>
+      </c>
+      <c r="AJ3">
+        <v>39</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2707,11 +4540,23 @@
         <v>3</v>
       </c>
       <c r="AE4" s="1">
-        <f t="shared" ref="AE4:AE42" si="6">C4*Y4+D4*Z4+E4*AA4+F4*AB4+G4*AC4+(7-H4)*AD4</f>
+        <f t="shared" ref="AE4:AE41" si="6">C4*Y4+D4*Z4+E4*AA4+F4*AB4+G4*AC4+(7-H4)*AD4</f>
         <v>44</v>
       </c>
+      <c r="AI4">
+        <v>44</v>
+      </c>
+      <c r="AJ4">
+        <v>41</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +4657,20 @@
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
+      <c r="AI5">
+        <v>54</v>
+      </c>
+      <c r="AJ5">
+        <v>43</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2914,8 +4771,20 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
+      <c r="AI6">
+        <v>25</v>
+      </c>
+      <c r="AJ6">
+        <v>39</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>6</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -3016,8 +4885,20 @@
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
+      <c r="AI7">
+        <v>28</v>
+      </c>
+      <c r="AJ7">
+        <v>24</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3118,8 +4999,20 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
+      <c r="AI8">
+        <v>35</v>
+      </c>
+      <c r="AJ8">
+        <v>32</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3220,8 +5113,20 @@
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
+      <c r="AI9">
+        <v>52</v>
+      </c>
+      <c r="AJ9">
+        <v>51</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3322,8 +5227,20 @@
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
+      <c r="AI10">
+        <v>28</v>
+      </c>
+      <c r="AJ10">
+        <v>27</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>6</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3424,8 +5341,20 @@
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
+      <c r="AI11">
+        <v>27</v>
+      </c>
+      <c r="AJ11">
+        <v>32</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -3529,8 +5458,26 @@
       <c r="AF12">
         <v>35.5</v>
       </c>
+      <c r="AH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI12">
+        <v>31</v>
+      </c>
+      <c r="AJ12">
+        <v>32</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3631,8 +5578,20 @@
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
+      <c r="AI13">
+        <v>31</v>
+      </c>
+      <c r="AJ13">
+        <v>21</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>6</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -3733,8 +5692,20 @@
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
+      <c r="AI14">
+        <v>45</v>
+      </c>
+      <c r="AJ14">
+        <v>43</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -3835,8 +5806,20 @@
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
+      <c r="AI15">
+        <v>61</v>
+      </c>
+      <c r="AJ15">
+        <v>62</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3937,8 +5920,20 @@
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
+      <c r="AI16">
+        <v>28</v>
+      </c>
+      <c r="AJ16">
+        <v>37</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>6</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -4039,8 +6034,20 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
+      <c r="AI17">
+        <v>25</v>
+      </c>
+      <c r="AJ17">
+        <v>22</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -4134,15 +6141,27 @@
         <v>3</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" ref="AD18:AD42" si="7">COUNTIF(N18:AB18, AD$1)</f>
+        <f t="shared" ref="AD18:AD41" si="7">COUNTIF(N18:AB18, AD$1)</f>
         <v>1</v>
       </c>
       <c r="AE18" s="1">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
+      <c r="AI18">
+        <v>33</v>
+      </c>
+      <c r="AJ18">
+        <v>20</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -4243,8 +6262,20 @@
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
+      <c r="AI19">
+        <v>48</v>
+      </c>
+      <c r="AJ19">
+        <v>48</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -4345,8 +6376,20 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
+      <c r="AI20">
+        <v>24</v>
+      </c>
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>7</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -4447,8 +6490,20 @@
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
+      <c r="AI21">
+        <v>29</v>
+      </c>
+      <c r="AJ21">
+        <v>38</v>
+      </c>
+      <c r="AR21" s="2">
+        <v>6</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4553,7 +6608,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -4655,7 +6710,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -4756,8 +6811,14 @@
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
+      <c r="AI24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -4859,7 +6920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -4960,8 +7021,32 @@
         <f t="shared" si="6"/>
         <v>39</v>
       </c>
+      <c r="AI26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -5062,8 +7147,20 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
+      <c r="AI27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AQ27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -5164,8 +7261,32 @@
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
+      <c r="AI28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>20</v>
+      </c>
+      <c r="AQ28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AS28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AT28" s="3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -5266,8 +7387,32 @@
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
+      <c r="AI29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>377</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>348</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>725</v>
+      </c>
+      <c r="AQ29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR29" s="3">
+        <v>46</v>
+      </c>
+      <c r="AS29" s="3">
+        <v>55</v>
+      </c>
+      <c r="AT29" s="3">
+        <v>101</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -5368,8 +7513,32 @@
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
+      <c r="AI30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>36.25</v>
+      </c>
+      <c r="AQ30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR30" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AS30" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="AT30" s="3">
+        <v>5.05</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -5470,8 +7639,32 @@
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
+      <c r="AI31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>114.01111111111115</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>90.622222222222263</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>99.14473684210526</v>
+      </c>
+      <c r="AQ31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR31" s="3">
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="AS31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AT31" s="3">
+        <v>1.2078947368421047</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -5573,10 +7766,18 @@
         <v>32</v>
       </c>
       <c r="AF32">
-        <v>34.1</v>
-      </c>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -5654,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <f t="shared" ref="Z33:Z42" si="8">COUNTIF(J33:X33, $Z$1)</f>
+        <f t="shared" ref="Z33:Z41" si="8">COUNTIF(J33:X33, $Z$1)</f>
         <v>1</v>
       </c>
       <c r="AA33" s="1">
@@ -5677,8 +7878,20 @@
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
+      <c r="AI33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AQ33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+      <c r="AT33" s="4"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -5779,8 +7992,32 @@
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
+      <c r="AI34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK34" s="3">
+        <v>10</v>
+      </c>
+      <c r="AL34" s="3">
+        <v>20</v>
+      </c>
+      <c r="AQ34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR34" s="3">
+        <v>10</v>
+      </c>
+      <c r="AS34" s="3">
+        <v>10</v>
+      </c>
+      <c r="AT34" s="3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
@@ -5881,8 +8118,32 @@
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
+      <c r="AI35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>355</v>
+      </c>
+      <c r="AK35" s="3">
+        <v>343</v>
+      </c>
+      <c r="AL35" s="3">
+        <v>698</v>
+      </c>
+      <c r="AQ35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR35" s="3">
+        <v>51</v>
+      </c>
+      <c r="AS35" s="3">
+        <v>56</v>
+      </c>
+      <c r="AT35" s="3">
+        <v>107</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -5983,8 +8244,32 @@
         <f t="shared" si="6"/>
         <v>37</v>
       </c>
+      <c r="AI36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AL36" s="3">
+        <v>34.9</v>
+      </c>
+      <c r="AQ36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR36" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AS36" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="AT36" s="3">
+        <v>5.35</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -6085,8 +8370,32 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
+      <c r="AI37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>142.72222222222223</v>
+      </c>
+      <c r="AK37" s="3">
+        <v>199.34444444444449</v>
+      </c>
+      <c r="AL37" s="3">
+        <v>162.41052631578944</v>
+      </c>
+      <c r="AQ37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR37" s="3">
+        <v>1.655555555555553</v>
+      </c>
+      <c r="AS37" s="3">
+        <v>0.48888888888888637</v>
+      </c>
+      <c r="AT37" s="3">
+        <v>1.0815789473684188</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -6187,8 +8496,16 @@
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -6202,64 +8519,64 @@
         <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X39" s="2">
         <v>6</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X39" s="2">
-        <v>5</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="0"/>
@@ -6267,15 +8584,15 @@
       </c>
       <c r="Z39" s="1">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC39" s="1">
         <f t="shared" si="4"/>
@@ -6283,37 +8600,49 @@
       </c>
       <c r="AD39" s="1">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE39" s="1">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="AI39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AQ39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>5</v>
@@ -6322,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>10</v>
@@ -6349,16 +8678,16 @@
         <v>5</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X40" s="2">
         <v>6</v>
@@ -6373,109 +8702,129 @@
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB40" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC40" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD40" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE40" s="1">
         <f t="shared" si="6"/>
-        <v>48</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AI40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>20</v>
+      </c>
+      <c r="AK40" s="3">
+        <v>20</v>
+      </c>
+      <c r="AL40" s="3"/>
+      <c r="AQ40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR40" s="3">
+        <v>20</v>
+      </c>
+      <c r="AS40" s="3">
+        <v>20</v>
+      </c>
+      <c r="AT40" s="3"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X41" s="2">
         <v>6</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA41" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" si="3"/>
@@ -6483,122 +8832,354 @@
       </c>
       <c r="AC41" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="1">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AI41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>732</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>691</v>
+      </c>
+      <c r="AL41" s="3"/>
+      <c r="AQ41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR41" s="3">
+        <v>97</v>
+      </c>
+      <c r="AS41" s="3">
+        <v>111</v>
+      </c>
+      <c r="AT41" s="3"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X42" s="2">
-        <v>6</v>
-      </c>
-      <c r="Y42" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Z42" s="1">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AA42" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB42" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC42" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="1">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AI42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ42" s="3">
+        <v>36.6</v>
+      </c>
+      <c r="AK42" s="3">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="AL42" s="3"/>
+      <c r="AQ42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR42" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AS42" s="3">
+        <v>5.55</v>
+      </c>
+      <c r="AT42" s="3"/>
+    </row>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AI43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ43" s="3">
+        <v>122.88421052631575</v>
+      </c>
+      <c r="AK43" s="3">
+        <v>137.41842105263163</v>
+      </c>
+      <c r="AL43" s="3"/>
+      <c r="AQ43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR43" s="3">
+        <v>1.6078947368421059</v>
+      </c>
+      <c r="AS43" s="3">
+        <v>0.47105263157894978</v>
+      </c>
+      <c r="AT43" s="3"/>
+    </row>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+    </row>
+    <row r="46" spans="1:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AI47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ47" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK47" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN47" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO47" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR47" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS47" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV47" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW47" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AI48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ48" s="3">
+        <v>18.225000000001273</v>
+      </c>
+      <c r="AK48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL48" s="3">
+        <v>18.225000000001273</v>
+      </c>
+      <c r="AM48" s="3">
+        <v>0.13334552771173419</v>
+      </c>
+      <c r="AN48" s="3">
+        <v>0.71712489941518331</v>
+      </c>
+      <c r="AO48" s="3">
+        <v>4.1131652768128939</v>
+      </c>
+      <c r="AQ48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR48" s="3">
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="AS48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT48" s="3">
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="AU48" s="3">
+        <v>0.84816753926702126</v>
+      </c>
+      <c r="AV48" s="3">
+        <v>0.36320199626041705</v>
+      </c>
+      <c r="AW48" s="3">
+        <v>4.1131652768128939</v>
+      </c>
+    </row>
+    <row r="49" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AI49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ49" s="3">
+        <v>42.024999999999636</v>
+      </c>
+      <c r="AK49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="3">
+        <v>42.024999999999636</v>
+      </c>
+      <c r="AM49" s="3">
+        <v>0.30748125114322028</v>
+      </c>
+      <c r="AN49" s="3">
+        <v>0.58265873297446857</v>
+      </c>
+      <c r="AO49" s="3">
+        <v>4.1131652768128939</v>
+      </c>
+      <c r="AQ49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR49" s="3">
+        <v>4.8999999999999844</v>
+      </c>
+      <c r="AS49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT49" s="3">
+        <v>4.8999999999999844</v>
+      </c>
+      <c r="AU49" s="3">
+        <v>4.6178010471204054</v>
+      </c>
+      <c r="AV49" s="3">
+        <v>3.8440203107544188E-2</v>
+      </c>
+      <c r="AW49" s="3">
+        <v>4.1131652768128939</v>
+      </c>
+    </row>
+    <row r="50" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AI50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ50" s="3">
+        <v>7.2249999999994543</v>
+      </c>
+      <c r="AK50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL50" s="3">
+        <v>7.2249999999994543</v>
+      </c>
+      <c r="AM50" s="3">
+        <v>5.2862630327415061E-2</v>
+      </c>
+      <c r="AN50" s="3">
+        <v>0.81945634891169428</v>
+      </c>
+      <c r="AO50" s="3">
+        <v>4.1131652768128939</v>
+      </c>
+      <c r="AQ50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR50" s="3">
+        <v>0.4000000000000199</v>
+      </c>
+      <c r="AS50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT50" s="3">
+        <v>0.4000000000000199</v>
+      </c>
+      <c r="AU50" s="3">
+        <v>0.37696335078535914</v>
+      </c>
+      <c r="AV50" s="3">
+        <v>0.5430935708386615</v>
+      </c>
+      <c r="AW50" s="3">
+        <v>4.1131652768128939</v>
+      </c>
+    </row>
+    <row r="51" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AI51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ51" s="3">
+        <v>4920.3</v>
+      </c>
+      <c r="AK51" s="3">
+        <v>36</v>
+      </c>
+      <c r="AL51" s="3">
+        <v>136.67500000000001</v>
+      </c>
+      <c r="AM51" s="3"/>
+      <c r="AN51" s="3"/>
+      <c r="AO51" s="3"/>
+      <c r="AQ51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR51" s="3">
+        <v>38.199999999999996</v>
+      </c>
+      <c r="AS51" s="3">
+        <v>36</v>
+      </c>
+      <c r="AT51" s="3">
+        <v>1.0611111111111109</v>
+      </c>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="3"/>
+    </row>
+    <row r="52" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
+      <c r="AQ52" s="3"/>
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="3"/>
+      <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="3"/>
+    </row>
+    <row r="53" spans="35:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ53" s="5">
+        <v>4987.7750000000005</v>
+      </c>
+      <c r="AK53" s="5">
+        <v>39</v>
+      </c>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AQ53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR53" s="5">
+        <v>44.400000000000006</v>
+      </c>
+      <c r="AS53" s="5">
+        <v>39</v>
+      </c>
+      <c r="AT53" s="5"/>
+      <c r="AU53" s="5"/>
+      <c r="AV53" s="5"/>
+      <c r="AW53" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AC1" xr:uid="{489AD9E5-7ED2-4068-B2EE-1C91F2A099EF}">
-    <sortState ref="A2:AC42">
+    <sortState ref="A2:AC41">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/Assets/DataProcessing/NASA results.xlsx
+++ b/Assets/DataProcessing/NASA results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B86909C-4664-4D32-82A8-8359B67D76D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44F8B63-0855-43A9-9ACC-EC9891CE459C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" xr2:uid="{9F19923B-91C2-47BC-B5DD-C687093A0B9A}"/>
   </bookViews>
@@ -17,22 +17,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$AE$32:$AE$41</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$X$12:$X$21</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$X$22:$X$31</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$X$32:$X$41</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AE$32:$AE$41</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$X$12:$X$21</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$X$22:$X$31</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$X$32:$X$41</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$X$12:$X$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$X$22:$X$31</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$X$2:$X$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$X$32:$X$41</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$AE$32:$AE$41</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$X$2:$X$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$X$32:$X$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$AE$32:$AE$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$X$12:$X$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$X$22:$X$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="79">
   <si>
     <t>6</t>
   </si>
@@ -285,6 +285,18 @@
   <si>
     <t>内部</t>
   </si>
+  <si>
+    <t>noov-less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ov-less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -398,22 +410,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -611,22 +623,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -824,22 +836,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1037,22 +1049,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3676,8 +3688,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12531315" y="7540664"/>
-              <a:ext cx="4546450" cy="3666117"/>
+              <a:off x="12531315" y="7394091"/>
+              <a:ext cx="4546450" cy="3600675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3756,8 +3768,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7887597" y="7522733"/>
-              <a:ext cx="4385085" cy="3666117"/>
+              <a:off x="7887597" y="7380194"/>
+              <a:ext cx="4385085" cy="3596641"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4089,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19793E4-070C-4B97-81ED-6A026E10A8D7}">
   <dimension ref="A1:AW53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK66" sqref="AK66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4207,7 +4219,7 @@
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -4216,20 +4228,20 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4237,74 +4249,74 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="1">
-        <f t="shared" ref="Y2:Y41" si="0">COUNTIF(I2:W2, $Y$1)</f>
+        <f>COUNTIF(I2:W2, $Y$1)</f>
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>COUNTIF(J2:X2, $Z$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>COUNTIF(K2:Y2, AA$1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB2" s="1">
+        <f>COUNTIF(L2:Z2, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1">
+        <f>COUNTIF(M2:AA2, AC$1)</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="1">
-        <f t="shared" ref="Z2:Z32" si="1">COUNTIF(J2:X2, $Z$1)</f>
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1">
-        <f t="shared" ref="AA2:AA41" si="2">COUNTIF(K2:Y2, AA$1)</f>
-        <v>4</v>
-      </c>
-      <c r="AB2" s="1">
-        <f t="shared" ref="AB2:AB41" si="3">COUNTIF(L2:Z2, AB$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AC2" s="1">
-        <f t="shared" ref="AC2:AC41" si="4">COUNTIF(M2:AA2, AC$1)</f>
-        <v>3</v>
-      </c>
       <c r="AD2" s="1">
-        <f t="shared" ref="AD2:AD17" si="5">COUNTIF(N2:AB2, AD$1)</f>
-        <v>2</v>
+        <f t="shared" ref="AD2:AD17" si="0">COUNTIF(N2:AB2, AD$1)</f>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <f>C2*Y2+D2*Z2+E2*AA2+F2*AB2+G2*AC2+(7-H2)*AD2</f>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AF2">
         <v>37.700000000000003</v>
@@ -4330,104 +4342,104 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="Y3" s="1">
+        <f>COUNTIF(I3:W3, $Y$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <f>COUNTIF(J3:X3, $Z$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1">
+        <f>COUNTIF(K3:Y3, AA$1)</f>
         <v>4</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="1">
+      <c r="AB3" s="1">
+        <f>COUNTIF(L3:Z3, AB$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AC3" s="1">
+        <f>COUNTIF(M3:AA3, AC$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AD3" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Z3" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB3" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AD3" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="1">
         <f>C3*Y3+D3*Z3+E3*AA3+F3*AB3+G3*AC3+(7-H3)*AD3</f>
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AI3">
         <v>44</v>
@@ -4444,19 +4456,19 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -4465,7 +4477,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>5</v>
@@ -4477,7 +4489,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>1</v>
@@ -4486,7 +4498,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>10</v>
@@ -4495,13 +4507,13 @@
         <v>2</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>2</v>
@@ -4510,38 +4522,38 @@
         <v>2</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2">
         <v>5</v>
       </c>
       <c r="Y4" s="1">
+        <f>COUNTIF(I4:W4, $Y$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>COUNTIF(J4:X4, $Z$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>COUNTIF(K4:Y4, AA$1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB4" s="1">
+        <f>COUNTIF(L4:Z4, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC4" s="1">
+        <f>COUNTIF(M4:AA4, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z4" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB4" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC4" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AD4" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="AE4" s="1">
-        <f t="shared" ref="AE4:AE41" si="6">C4*Y4+D4*Z4+E4*AA4+F4*AB4+G4*AC4+(7-H4)*AD4</f>
-        <v>44</v>
+        <f t="shared" ref="AE4:AE41" si="1">C4*Y4+D4*Z4+E4*AA4+F4*AB4+G4*AC4+(7-H4)*AD4</f>
+        <v>52</v>
       </c>
       <c r="AI4">
         <v>44</v>
@@ -4558,29 +4570,29 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4594,7 +4606,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>4</v>
@@ -4603,13 +4615,13 @@
         <v>2</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>5</v>
@@ -4630,32 +4642,32 @@
         <v>5</v>
       </c>
       <c r="Y5" s="1">
+        <f>COUNTIF(I5:W5, $Y$1)</f>
+        <v>2</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>COUNTIF(J5:X5, $Z$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <f>COUNTIF(K5:Y5, AA$1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB5" s="1">
+        <f>COUNTIF(L5:Z5, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC5" s="1">
+        <f>COUNTIF(M5:AA5, AC$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AA5" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AB5" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AE5" s="1">
-        <f t="shared" si="6"/>
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="AI5">
         <v>54</v>
@@ -4672,7 +4684,7 @@
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -4684,7 +4696,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -4693,43 +4705,43 @@
         <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>2</v>
@@ -4738,38 +4750,38 @@
         <v>1</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X6" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y6" s="1">
+        <f>COUNTIF(I6:W6, $Y$1)</f>
+        <v>3</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>COUNTIF(J6:X6, $Z$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <f>COUNTIF(K6:Y6, AA$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <f>COUNTIF(L6:Z6, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC6" s="1">
+        <f>COUNTIF(M6:AA6, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD6" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Z6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AA6" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AB6" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AC6" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AE6" s="1">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI6">
         <v>25</v>
@@ -4786,7 +4798,7 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -4798,7 +4810,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -4807,83 +4819,83 @@
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="1">
+        <f>COUNTIF(I7:W7, $Y$1)</f>
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1">
+        <f>COUNTIF(J7:X7, $Z$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AA7" s="1">
+        <f>COUNTIF(K7:Y7, AA$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AB7" s="1">
+        <f>COUNTIF(L7:Z7, AB$1)</f>
         <v>4</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X7" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="1">
+      <c r="AC7" s="1">
+        <f>COUNTIF(M7:AA7, AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC7" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD7" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AE7" s="1">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI7">
         <v>28</v>
@@ -4900,28 +4912,28 @@
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>5</v>
@@ -4936,7 +4948,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>4</v>
@@ -4945,13 +4957,13 @@
         <v>2</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>5</v>
@@ -4972,32 +4984,32 @@
         <v>5</v>
       </c>
       <c r="Y8" s="1">
+        <f>COUNTIF(I8:W8, $Y$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
+        <f>COUNTIF(J8:X8, $Z$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AA8" s="1">
+        <f>COUNTIF(K8:Y8, AA$1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB8" s="1">
+        <f>COUNTIF(L8:Z8, AB$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1">
+        <f>COUNTIF(M8:AA8, AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AE8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AB8" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC8" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AD8" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AE8" s="1">
-        <f t="shared" si="6"/>
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="AI8">
         <v>35</v>
@@ -5014,19 +5026,19 @@
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -5035,83 +5047,83 @@
         <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="1">
+        <f>COUNTIF(I9:W9, $Y$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
+        <f>COUNTIF(J9:X9, $Z$1)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X9" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="1">
+      <c r="AA9" s="1">
+        <f>COUNTIF(K9:Y9, AA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AB9" s="1">
+        <f>COUNTIF(L9:Z9, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC9" s="1">
+        <f>COUNTIF(M9:AA9, AC$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AD9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA9" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AB9" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC9" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD9" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <f t="shared" si="6"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AI9">
         <v>52</v>
@@ -5128,16 +5140,16 @@
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -5146,86 +5158,86 @@
         <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="1">
+        <f>COUNTIF(I10:W10, $Y$1)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X10" s="2">
-        <v>6</v>
-      </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
+        <f>COUNTIF(J10:X10, $Z$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AA10" s="1">
+        <f>COUNTIF(K10:Y10, AA$1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB10" s="1">
+        <f>COUNTIF(L10:Z10, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC10" s="1">
+        <f>COUNTIF(M10:AA10, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA10" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AB10" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AC10" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AD10" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AE10" s="1">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AI10">
         <v>28</v>
@@ -5242,37 +5254,37 @@
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>2</v>
@@ -5284,22 +5296,22 @@
         <v>4</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>2</v>
@@ -5308,38 +5320,38 @@
         <v>2</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X11" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y11" s="1">
+        <f>COUNTIF(I11:W11, $Y$1)</f>
+        <v>4</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>COUNTIF(J11:X11, $Z$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>COUNTIF(K11:Y11, AA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AB11" s="1">
+        <f>COUNTIF(L11:Z11, AB$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <f>COUNTIF(M11:AA11, AC$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AD11" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Z11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AA11" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AB11" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC11" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="1">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AI11">
         <v>27</v>
@@ -5356,7 +5368,7 @@
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -5365,43 +5377,43 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>2</v>
@@ -5410,50 +5422,50 @@
         <v>4</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X12" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y12" s="1">
+        <f>COUNTIF(I12:W12, $Y$1)</f>
+        <v>4</v>
+      </c>
+      <c r="Z12" s="1">
+        <f>COUNTIF(J12:X12, $Z$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>COUNTIF(K12:Y12, AA$1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB12" s="1">
+        <f>COUNTIF(L12:Z12, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC12" s="1">
+        <f>COUNTIF(M12:AA12, AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB12" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC12" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD12" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="6"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AF12">
         <v>35.5</v>
@@ -5479,13 +5491,13 @@
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
@@ -5500,10 +5512,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>1</v>
@@ -5518,19 +5530,19 @@
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>5</v>
@@ -5545,38 +5557,38 @@
         <v>2</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X13" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y13" s="1">
+        <f>COUNTIF(I13:W13, $Y$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <f>COUNTIF(J13:X13, $Z$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1">
+        <f>COUNTIF(K13:Y13, AA$1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB13" s="1">
+        <f>COUNTIF(L13:Z13, AB$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AC13" s="1">
+        <f>COUNTIF(M13:AA13, AC$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AD13" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Z13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB13" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC13" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AD13" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="6"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="AI13">
         <v>31</v>
@@ -5593,13 +5605,13 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -5611,7 +5623,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>0</v>
@@ -5623,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>10</v>
@@ -5647,7 +5659,7 @@
         <v>3</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>10</v>
@@ -5659,38 +5671,38 @@
         <v>2</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X14" s="2">
         <v>5</v>
       </c>
       <c r="Y14" s="1">
+        <f>COUNTIF(I14:W14, $Y$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>COUNTIF(J14:X14, $Z$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AA14" s="1">
+        <f>COUNTIF(K14:Y14, AA$1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB14" s="1">
+        <f>COUNTIF(L14:Z14, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC14" s="1">
+        <f>COUNTIF(M14:AA14, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AE14" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA14" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AB14" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC14" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD14" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="6"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AI14">
         <v>45</v>
@@ -5707,52 +5719,52 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>2</v>
@@ -5773,38 +5785,38 @@
         <v>1</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X15" s="2">
         <v>5</v>
       </c>
       <c r="Y15" s="1">
+        <f>COUNTIF(I15:W15, $Y$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>COUNTIF(J15:X15, $Z$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <f>COUNTIF(K15:Y15, AA$1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB15" s="1">
+        <f>COUNTIF(L15:Z15, AB$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AC15" s="1">
+        <f>COUNTIF(M15:AA15, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD15" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA15" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB15" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC15" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AD15" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="6"/>
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="AI15">
         <v>61</v>
@@ -5821,7 +5833,7 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -5830,19 +5842,19 @@
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>5</v>
@@ -5851,22 +5863,22 @@
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>2</v>
@@ -5875,10 +5887,10 @@
         <v>4</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>2</v>
@@ -5890,35 +5902,35 @@
         <v>1</v>
       </c>
       <c r="X16" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="1">
+        <f>COUNTIF(I16:W16, $Y$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>COUNTIF(J16:X16, $Z$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <f>COUNTIF(K16:Y16, AA$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AB16" s="1">
+        <f>COUNTIF(L16:Z16, AB$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AC16" s="1">
+        <f>COUNTIF(M16:AA16, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD16" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AE16" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA16" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB16" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AC16" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AE16" s="1">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI16">
         <v>28</v>
@@ -5935,7 +5947,7 @@
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
@@ -5944,19 +5956,19 @@
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>5</v>
@@ -5965,22 +5977,22 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>2</v>
@@ -5989,10 +6001,10 @@
         <v>4</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>2</v>
@@ -6004,35 +6016,35 @@
         <v>1</v>
       </c>
       <c r="X17" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y17" s="1">
+        <f>COUNTIF(I17:W17, $Y$1)</f>
+        <v>2</v>
+      </c>
+      <c r="Z17" s="1">
+        <f>COUNTIF(J17:X17, $Z$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AA17" s="1">
+        <f>COUNTIF(K17:Y17, AA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AB17" s="1">
+        <f>COUNTIF(L17:Z17, AB$1)</f>
+        <v>4</v>
+      </c>
+      <c r="AC17" s="1">
+        <f>COUNTIF(M17:AA17, AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AE17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AB17" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AC17" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD17" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AE17" s="1">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI17">
         <v>25</v>
@@ -6049,52 +6061,52 @@
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>2</v>
@@ -6115,38 +6127,38 @@
         <v>1</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X18" s="2">
         <v>5</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>COUNTIF(I18:W18, $Y$1)</f>
+        <v>3</v>
       </c>
       <c r="Z18" s="1">
+        <f>COUNTIF(J18:X18, $Z$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>COUNTIF(K18:Y18, AA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AB18" s="1">
+        <f>COUNTIF(L18:Z18, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC18" s="1">
+        <f>COUNTIF(M18:AA18, AC$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD18" s="1">
+        <f t="shared" ref="AD18:AD41" si="2">COUNTIF(N18:AB18, AD$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AE18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AB18" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AC18" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD18" s="1">
-        <f t="shared" ref="AD18:AD41" si="7">COUNTIF(N18:AB18, AD$1)</f>
-        <v>1</v>
-      </c>
-      <c r="AE18" s="1">
-        <f t="shared" si="6"/>
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="AI18">
         <v>33</v>
@@ -6163,13 +6175,13 @@
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -6181,7 +6193,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>0</v>
@@ -6193,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>10</v>
@@ -6217,7 +6229,7 @@
         <v>3</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>10</v>
@@ -6229,38 +6241,38 @@
         <v>2</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X19" s="2">
         <v>5</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I19:W19, $Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z19" s="1">
+        <f>COUNTIF(J19:X19, $Z$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
+        <f>COUNTIF(K19:Y19, AA$1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB19" s="1">
+        <f>COUNTIF(L19:Z19, AB$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1">
+        <f>COUNTIF(M19:AA19, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE19" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA19" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AB19" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC19" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD19" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="1">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AI19">
         <v>48</v>
@@ -6277,7 +6289,7 @@
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -6286,95 +6298,95 @@
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="1">
+        <f>COUNTIF(I20:W20, $Y$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
+        <f>COUNTIF(J20:X20, $Z$1)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X20" s="2">
-        <v>7</v>
-      </c>
-      <c r="Y20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1">
+      <c r="AA20" s="1">
+        <f>COUNTIF(K20:Y20, AA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AB20" s="1">
+        <f>COUNTIF(L20:Z20, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC20" s="1">
+        <f>COUNTIF(M20:AA20, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE20" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA20" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AB20" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AC20" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AD20" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AE20" s="1">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AI20">
         <v>24</v>
@@ -6391,22 +6403,22 @@
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>11</v>
@@ -6418,7 +6430,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>5</v>
@@ -6427,25 +6439,25 @@
         <v>2</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>1</v>
@@ -6457,38 +6469,38 @@
         <v>2</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X21" s="2">
         <v>6</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I21:W21, $Y$1)</f>
         <v>4</v>
       </c>
       <c r="Z21" s="1">
+        <f>COUNTIF(J21:X21, $Z$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <f>COUNTIF(K21:Y21, AA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AB21" s="1">
+        <f>COUNTIF(L21:Z21, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC21" s="1">
+        <f>COUNTIF(M21:AA21, AC$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD21" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AE21" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AA21" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AB21" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC21" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="1">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AI21">
         <v>29</v>
@@ -6505,104 +6517,104 @@
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I22:W22, $Y$1)</f>
+        <v>5</v>
+      </c>
+      <c r="Z22" s="1">
+        <f>COUNTIF(J22:X22, $Z$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AA22" s="1">
+        <f>COUNTIF(K22:Y22, AA$1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB22" s="1">
+        <f>COUNTIF(L22:Z22, AB$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AC22" s="1">
+        <f>COUNTIF(M22:AA22, AC$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD22" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AE22" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA22" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB22" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC22" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD22" s="1">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AE22" s="1">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AF22">
         <v>34.799999999999997</v>
@@ -6610,34 +6622,34 @@
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>5</v>
@@ -6646,13 +6658,13 @@
         <v>2</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>10</v>
@@ -6664,13 +6676,13 @@
         <v>3</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>1</v>
@@ -6682,52 +6694,52 @@
         <v>6</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>COUNTIF(I23:W23, $Y$1)</f>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
+        <f>COUNTIF(J23:X23, $Z$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AA23" s="1">
+        <f>COUNTIF(K23:Y23, AA$1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB23" s="1">
+        <f>COUNTIF(L23:Z23, AB$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AC23" s="1">
+        <f>COUNTIF(M23:AA23, AC$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE23" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AA23" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AB23" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC23" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AD23" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AE23" s="1">
-        <f t="shared" si="6"/>
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>9</v>
@@ -6742,13 +6754,13 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>10</v>
@@ -6766,7 +6778,7 @@
         <v>3</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>10</v>
@@ -6775,41 +6787,41 @@
         <v>2</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2">
         <v>6</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I24:W24, $Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z24" s="1">
+        <f>COUNTIF(J24:X24, $Z$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AA24" s="1">
+        <f>COUNTIF(K24:Y24, AA$1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB24" s="1">
+        <f>COUNTIF(L24:Z24, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC24" s="1">
+        <f>COUNTIF(M24:AA24, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA24" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB24" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC24" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD24" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AE24" s="1">
-        <f t="shared" si="6"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="s">
         <v>57</v>
@@ -6820,22 +6832,22 @@
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>6</v>
@@ -6850,29 +6862,29 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="S25" s="1" t="s">
         <v>5</v>
       </c>
@@ -6880,10 +6892,10 @@
         <v>10</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25" s="1" t="s">
         <v>5</v>
@@ -6892,37 +6904,37 @@
         <v>5</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I25:W25, $Y$1)</f>
         <v>1</v>
       </c>
       <c r="Z25" s="1">
+        <f>COUNTIF(J25:X25, $Z$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <f>COUNTIF(K25:Y25, AA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AB25" s="1">
+        <f>COUNTIF(L25:Z25, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC25" s="1">
+        <f>COUNTIF(M25:AA25, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD25" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AE25" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AA25" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AB25" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AD25" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AE25" s="1">
-        <f t="shared" si="6"/>
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
@@ -6934,10 +6946,10 @@
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>7</v>
@@ -6952,25 +6964,25 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>4</v>
@@ -6979,7 +6991,7 @@
         <v>5</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>2</v>
@@ -6991,35 +7003,35 @@
         <v>1</v>
       </c>
       <c r="X26" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I26:W26, $Y$1)</f>
         <v>2</v>
       </c>
       <c r="Z26" s="1">
+        <f>COUNTIF(J26:X26, $Z$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <f>COUNTIF(K26:Y26, AA$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AB26" s="1">
+        <f>COUNTIF(L26:Z26, AB$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AC26" s="1">
+        <f>COUNTIF(M26:AA26, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD26" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB26" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AC26" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AD26" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AE26" s="1">
-        <f t="shared" si="6"/>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="s">
         <v>58</v>
@@ -7048,7 +7060,7 @@
     </row>
     <row r="27" spans="1:46" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -7060,10 +7072,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>7</v>
@@ -7078,16 +7090,16 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>5</v>
@@ -7096,7 +7108,7 @@
         <v>10</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>4</v>
@@ -7105,7 +7117,7 @@
         <v>5</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>2</v>
@@ -7117,35 +7129,35 @@
         <v>1</v>
       </c>
       <c r="X27" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I27:W27, $Y$1)</f>
         <v>2</v>
       </c>
       <c r="Z27" s="1">
+        <f>COUNTIF(J27:X27, $Z$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <f>COUNTIF(K27:Y27, AA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AB27" s="1">
+        <f>COUNTIF(L27:Z27, AB$1)</f>
+        <v>4</v>
+      </c>
+      <c r="AC27" s="1">
+        <f>COUNTIF(M27:AA27, AC$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD27" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE27" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB27" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AC27" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD27" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AE27" s="1">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AI27" s="4" t="s">
         <v>53</v>
@@ -7162,22 +7174,22 @@
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>6</v>
@@ -7192,74 +7204,74 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X28" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="1">
+        <f>COUNTIF(I28:W28, $Y$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1">
+        <f>COUNTIF(J28:X28, $Z$1)</f>
         <v>4</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X28" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y28" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z28" s="1">
+      <c r="AA28" s="1">
+        <f>COUNTIF(K28:Y28, AA$1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB28" s="1">
+        <f>COUNTIF(L28:Z28, AB$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <f>COUNTIF(M28:AA28, AC$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE28" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB28" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC28" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD28" s="1">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AE28" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="AI28" s="3" t="s">
         <v>60</v>
@@ -7288,22 +7300,22 @@
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>9</v>
@@ -7318,13 +7330,13 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>10</v>
@@ -7342,7 +7354,7 @@
         <v>3</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>10</v>
@@ -7351,41 +7363,41 @@
         <v>2</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X29" s="2">
         <v>6</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I29:W29, $Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z29" s="1">
+        <f>COUNTIF(J29:X29, $Z$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AA29" s="1">
+        <f>COUNTIF(K29:Y29, AA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AB29" s="1">
+        <f>COUNTIF(L29:Z29, AB$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AC29" s="1">
+        <f>COUNTIF(M29:AA29, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD29" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE29" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA29" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AB29" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC29" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD29" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="1">
-        <f t="shared" si="6"/>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI29" s="3" t="s">
         <v>61</v>
@@ -7414,28 +7426,28 @@
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>5</v>
@@ -7444,10 +7456,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>1</v>
@@ -7456,7 +7468,7 @@
         <v>10</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>10</v>
@@ -7471,10 +7483,10 @@
         <v>5</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>1</v>
@@ -7486,32 +7498,32 @@
         <v>6</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I30:W30, $Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z30" s="1">
+        <f>COUNTIF(J30:X30, $Z$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AA30" s="1">
+        <f>COUNTIF(K30:Y30, AA$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AB30" s="1">
+        <f>COUNTIF(L30:Z30, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC30" s="1">
+        <f>COUNTIF(M30:AA30, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD30" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AE30" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA30" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AB30" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AC30" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AD30" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AE30" s="1">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AI30" s="3" t="s">
         <v>62</v>
@@ -7540,16 +7552,16 @@
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
@@ -7561,10 +7573,10 @@
         <v>7</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>4</v>
@@ -7579,65 +7591,65 @@
         <v>3</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X31" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y31" s="1">
+        <f>COUNTIF(I31:W31, $Y$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z31" s="1">
+        <f>COUNTIF(J31:X31, $Z$1)</f>
         <v>4</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X31" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y31" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Z31" s="1">
+      <c r="AA31" s="1">
+        <f>COUNTIF(K31:Y31, AA$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AB31" s="1">
+        <f>COUNTIF(L31:Z31, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC31" s="1">
+        <f>COUNTIF(M31:AA31, AC$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AD31" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE31" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AA31" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AB31" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC31" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AD31" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AI31" s="3" t="s">
         <v>63</v>
@@ -7666,13 +7678,13 @@
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
@@ -7687,13 +7699,13 @@
         <v>7</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>5</v>
@@ -7702,68 +7714,68 @@
         <v>2</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X32" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I32:W32, $Y$1)</f>
+        <v>5</v>
+      </c>
+      <c r="Z32" s="1">
+        <f>COUNTIF(J32:X32, $Z$1)</f>
+        <v>4</v>
+      </c>
+      <c r="AA32" s="1">
+        <f>COUNTIF(K32:Y32, AA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AB32" s="1">
+        <f>COUNTIF(L32:Z32, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC32" s="1">
+        <f>COUNTIF(M32:AA32, AC$1)</f>
         <v>0</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="AD32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA32" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AB32" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC32" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD32" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AE32" s="1">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AF32">
         <v>34.299999999999997</v>
@@ -7779,13 +7791,13 @@
     </row>
     <row r="33" spans="1:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>7</v>
@@ -7794,10 +7806,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>0</v>
@@ -7812,7 +7824,7 @@
         <v>5</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>1</v>
@@ -7821,7 +7833,7 @@
         <v>10</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>10</v>
@@ -7836,7 +7848,7 @@
         <v>5</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>2</v>
@@ -7851,32 +7863,32 @@
         <v>6</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I33:W33, $Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <f t="shared" ref="Z33:Z41" si="8">COUNTIF(J33:X33, $Z$1)</f>
+        <f>COUNTIF(J33:X33, $Z$1)</f>
         <v>1</v>
       </c>
       <c r="AA33" s="1">
+        <f>COUNTIF(K33:Y33, AA$1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB33" s="1">
+        <f>COUNTIF(L33:Z33, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC33" s="1">
+        <f>COUNTIF(M33:AA33, AC$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AD33" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AB33" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC33" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD33" s="1">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE33" s="1">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="AI33" s="4" t="s">
         <v>55</v>
@@ -7893,13 +7905,13 @@
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>12</v>
@@ -7908,13 +7920,13 @@
         <v>9</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>5</v>
@@ -7923,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>10</v>
@@ -7935,7 +7947,7 @@
         <v>10</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>10</v>
@@ -7944,7 +7956,7 @@
         <v>2</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>5</v>
@@ -7959,38 +7971,38 @@
         <v>1</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X34" s="2">
         <v>6</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>COUNTIF(I34:W34, $Y$1)</f>
+        <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>COUNTIF(J34:X34, $Z$1)</f>
+        <v>1</v>
       </c>
       <c r="AA34" s="1">
+        <f>COUNTIF(K34:Y34, AA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AB34" s="1">
+        <f>COUNTIF(L34:Z34, AB$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AC34" s="1">
+        <f>COUNTIF(M34:AA34, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD34" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AB34" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC34" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD34" s="1">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="1">
-        <f t="shared" si="6"/>
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="AI34" s="3" t="s">
         <v>60</v>
@@ -8019,37 +8031,37 @@
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>10</v>
@@ -8058,16 +8070,16 @@
         <v>1</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>4</v>
@@ -8076,13 +8088,13 @@
         <v>5</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W35" s="1" t="s">
         <v>5</v>
@@ -8091,32 +8103,32 @@
         <v>6</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>COUNTIF(I35:W35, $Y$1)</f>
+        <v>1</v>
       </c>
       <c r="Z35" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>COUNTIF(J35:X35, $Z$1)</f>
+        <v>0</v>
       </c>
       <c r="AA35" s="1">
+        <f>COUNTIF(K35:Y35, AA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AB35" s="1">
+        <f>COUNTIF(L35:Z35, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC35" s="1">
+        <f>COUNTIF(M35:AA35, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD35" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB35" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC35" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="1">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE35" s="1">
-        <f t="shared" si="6"/>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="AI35" s="3" t="s">
         <v>61</v>
@@ -8145,7 +8157,7 @@
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
@@ -8157,43 +8169,43 @@
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>4</v>
@@ -8202,47 +8214,47 @@
         <v>5</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X36" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>COUNTIF(I36:W36, $Y$1)</f>
+        <v>3</v>
       </c>
       <c r="Z36" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>COUNTIF(J36:X36, $Z$1)</f>
+        <v>0</v>
       </c>
       <c r="AA36" s="1">
+        <f>COUNTIF(K36:Y36, AA$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AB36" s="1">
+        <f>COUNTIF(L36:Z36, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC36" s="1">
+        <f>COUNTIF(M36:AA36, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD36" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AB36" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC36" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="1">
-        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE36" s="1">
-        <f t="shared" si="6"/>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="AI36" s="3" t="s">
         <v>62</v>
@@ -8271,7 +8283,7 @@
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
@@ -8283,43 +8295,43 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>4</v>
@@ -8328,47 +8340,47 @@
         <v>5</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>COUNTIF(I37:W37, $Y$1)</f>
+        <v>2</v>
       </c>
       <c r="Z37" s="1">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(J37:X37, $Z$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AA37" s="1">
+        <f>COUNTIF(K37:Y37, AA$1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB37" s="1">
+        <f>COUNTIF(L37:Z37, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC37" s="1">
+        <f>COUNTIF(M37:AA37, AC$1)</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="1">
+      <c r="AD37" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB37" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC37" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD37" s="1">
-        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE37" s="1">
-        <f t="shared" si="6"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="AI37" s="3" t="s">
         <v>63</v>
@@ -8397,37 +8409,37 @@
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>10</v>
@@ -8436,16 +8448,16 @@
         <v>1</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>4</v>
@@ -8454,13 +8466,13 @@
         <v>5</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W38" s="1" t="s">
         <v>5</v>
@@ -8469,32 +8481,32 @@
         <v>6</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>COUNTIF(I38:W38, $Y$1)</f>
+        <v>4</v>
       </c>
       <c r="Z38" s="1">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(J38:X38, $Z$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AA38" s="1">
+        <f>COUNTIF(K38:Y38, AA$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AB38" s="1">
+        <f>COUNTIF(L38:Z38, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC38" s="1">
+        <f>COUNTIF(M38:AA38, AC$1)</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AD38" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB38" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC38" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD38" s="1">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE38" s="1">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
@@ -8507,13 +8519,13 @@
     </row>
     <row r="39" spans="1:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>12</v>
@@ -8522,13 +8534,13 @@
         <v>9</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>5</v>
@@ -8537,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>10</v>
@@ -8549,7 +8561,7 @@
         <v>10</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>10</v>
@@ -8558,7 +8570,7 @@
         <v>2</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>5</v>
@@ -8573,38 +8585,38 @@
         <v>1</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X39" s="2">
         <v>6</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I39:W39, $Y$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z39" s="1">
+        <f>COUNTIF(J39:X39, $Z$1)</f>
         <v>0</v>
       </c>
-      <c r="Z39" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
       <c r="AA39" s="1">
+        <f>COUNTIF(K39:Y39, AA$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AB39" s="1">
+        <f>COUNTIF(L39:Z39, AB$1)</f>
+        <v>2</v>
+      </c>
+      <c r="AC39" s="1">
+        <f>COUNTIF(M39:AA39, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD39" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AB39" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AC39" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AD39" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="AE39" s="1">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="AI39" s="4" t="s">
         <v>59</v>
@@ -8621,7 +8633,7 @@
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
@@ -8633,92 +8645,92 @@
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X40" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y40" s="1">
+        <f>COUNTIF(I40:W40, $Y$1)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X40" s="2">
-        <v>6</v>
-      </c>
-      <c r="Y40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Z40" s="1">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(J40:X40, $Z$1)</f>
         <v>1</v>
       </c>
       <c r="AA40" s="1">
+        <f>COUNTIF(K40:Y40, AA$1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB40" s="1">
+        <f>COUNTIF(L40:Z40, AB$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AC40" s="1">
+        <f>COUNTIF(M40:AA40, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD40" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AB40" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC40" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AD40" s="1">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE40" s="1">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="AI40" s="3" t="s">
         <v>60</v>
@@ -8743,7 +8755,7 @@
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>6</v>
@@ -8755,22 +8767,22 @@
         <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>5</v>
@@ -8779,68 +8791,68 @@
         <v>2</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X41" s="2">
         <v>6</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>COUNTIF(I41:W41, $Y$1)</f>
+        <v>0</v>
       </c>
       <c r="Z41" s="1">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(J41:X41, $Z$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AA41" s="1">
+        <f>COUNTIF(K41:Y41, AA$1)</f>
         <v>4</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AB41" s="1">
+        <f>COUNTIF(L41:Z41, AB$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AC41" s="1">
+        <f>COUNTIF(M41:AA41, AC$1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD41" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AB41" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC41" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="AE41" s="1">
-        <f t="shared" si="6"/>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="AI41" s="3" t="s">
         <v>61</v>
@@ -8917,7 +8929,27 @@
       <c r="AS44" s="3"/>
       <c r="AT44" s="3"/>
     </row>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="46" spans="1:49" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
       <c r="AI46" t="s">
         <v>64</v>
       </c>

--- a/Assets/DataProcessing/NASA results.xlsx
+++ b/Assets/DataProcessing/NASA results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44F8B63-0855-43A9-9ACC-EC9891CE459C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB95429-DFCF-4C7A-89E4-337FFB20331A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" xr2:uid="{9F19923B-91C2-47BC-B5DD-C687093A0B9A}"/>
   </bookViews>
@@ -17,22 +17,26 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$X$12:$X$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$X$22:$X$31</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$X$32:$X$41</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$AE$32:$AE$41</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$X$32:$X$41</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$AE$32:$AE$41</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$X$12:$X$21</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$X$22:$X$31</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$AE$32:$AE$41</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$X$12:$X$21</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$X$22:$X$31</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$X$2:$X$11</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$X$32:$X$41</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$X$12:$X$21</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$X$22:$X$31</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$X$2:$X$11</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$X$32:$X$41</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AE$32:$AE$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$X$12:$X$21</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$X$22:$X$31</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$X$2:$X$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$X$32:$X$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -410,22 +414,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -623,22 +627,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -836,28 +840,37 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
         <cx:series layoutId="boxWhisker" uniqueId="{73349534-8BE2-4B47-863F-3F846F031FDD}">
           <cx:tx>
             <cx:txData>
@@ -909,7 +922,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:catScaling gapWidth="0.270000011"/>
         <cx:tickLabels/>
         <cx:txPr>
           <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
@@ -944,7 +957,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1400" b="1">
+                  <a:defRPr sz="1800" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -954,7 +967,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -962,9 +975,9 @@
                     <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Rating</a:t>
+                  <a:t>Workload</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -982,7 +995,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1200" b="1">
+              <a:defRPr sz="1400" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -991,7 +1004,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1008,7 +1021,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400" b="1">
+            <a:defRPr sz="1600" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1017,7 +1030,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1030,9 +1043,9 @@
     </cx:legend>
   </cx:chart>
   <cx:spPr>
-    <a:ln>
+    <a:ln w="12700">
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
     </a:ln>
   </cx:spPr>
@@ -1049,28 +1062,37 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
         <cx:series layoutId="boxWhisker" uniqueId="{73349534-8BE2-4B47-863F-3F846F031FDD}">
           <cx:tx>
             <cx:txData>
@@ -1122,7 +1144,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:catScaling gapWidth="0.270000011"/>
         <cx:tickLabels/>
         <cx:txPr>
           <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
@@ -1157,7 +1179,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1400" b="1">
+                  <a:defRPr sz="1800" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1167,7 +1189,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1175,9 +1197,9 @@
                     <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Rating</a:t>
+                  <a:t>Score</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1195,7 +1217,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1200" b="1">
+              <a:defRPr sz="1400" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1204,7 +1226,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1221,7 +1243,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400" b="1">
+            <a:defRPr sz="1600" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1230,7 +1252,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1243,9 +1265,9 @@
     </cx:legend>
   </cx:chart>
   <cx:spPr>
-    <a:ln>
+    <a:ln w="12700">
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
     </a:ln>
   </cx:spPr>
@@ -3642,13 +3664,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>339315</xdr:colOff>
+      <xdr:colOff>182699</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>10311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>8965</xdr:colOff>
+      <xdr:colOff>57899</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>90546</xdr:rowOff>
     </xdr:to>
@@ -3688,8 +3710,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12531315" y="7394091"/>
-              <a:ext cx="4546450" cy="3600675"/>
+              <a:off x="12374699" y="7540664"/>
+              <a:ext cx="4752000" cy="3666117"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3722,13 +3744,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>572397</xdr:colOff>
+      <xdr:colOff>206189</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>171674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>80682</xdr:colOff>
+      <xdr:colOff>80683</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>72615</xdr:rowOff>
     </xdr:to>
@@ -3768,8 +3790,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7887597" y="7380194"/>
-              <a:ext cx="4385085" cy="3596641"/>
+              <a:off x="7521389" y="7522733"/>
+              <a:ext cx="4751294" cy="3666117"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4101,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19793E4-070C-4B97-81ED-6A026E10A8D7}">
   <dimension ref="A1:AW53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE45" sqref="AE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4291,27 +4313,27 @@
         <v>5</v>
       </c>
       <c r="Y2" s="1">
-        <f>COUNTIF(I2:W2, $Y$1)</f>
+        <f t="shared" ref="Y2:Y41" si="0">COUNTIF(I2:W2, $Y$1)</f>
         <v>2</v>
       </c>
       <c r="Z2" s="1">
-        <f>COUNTIF(J2:X2, $Z$1)</f>
+        <f t="shared" ref="Z2:Z41" si="1">COUNTIF(J2:X2, $Z$1)</f>
         <v>3</v>
       </c>
       <c r="AA2" s="1">
-        <f>COUNTIF(K2:Y2, AA$1)</f>
+        <f t="shared" ref="AA2:AA41" si="2">COUNTIF(K2:Y2, AA$1)</f>
         <v>5</v>
       </c>
       <c r="AB2" s="1">
-        <f>COUNTIF(L2:Z2, AB$1)</f>
+        <f t="shared" ref="AB2:AB41" si="3">COUNTIF(L2:Z2, AB$1)</f>
         <v>2</v>
       </c>
       <c r="AC2" s="1">
-        <f>COUNTIF(M2:AA2, AC$1)</f>
+        <f t="shared" ref="AC2:AC41" si="4">COUNTIF(M2:AA2, AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <f t="shared" ref="AD2:AD17" si="0">COUNTIF(N2:AB2, AD$1)</f>
+        <f t="shared" ref="AD2:AD17" si="5">COUNTIF(N2:AB2, AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE2" s="1">
@@ -4414,27 +4436,27 @@
         <v>6</v>
       </c>
       <c r="Y3" s="1">
-        <f>COUNTIF(I3:W3, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <f>COUNTIF(J3:X3, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA3" s="1">
-        <f>COUNTIF(K3:Y3, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB3" s="1">
-        <f>COUNTIF(L3:Z3, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC3" s="1">
-        <f>COUNTIF(M3:AA3, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE3" s="1">
@@ -4528,31 +4550,31 @@
         <v>5</v>
       </c>
       <c r="Y4" s="1">
-        <f>COUNTIF(I4:W4, $Y$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1">
-        <f>COUNTIF(J4:X4, $Z$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AA4" s="1">
-        <f>COUNTIF(K4:Y4, AA$1)</f>
-        <v>5</v>
-      </c>
-      <c r="AB4" s="1">
-        <f>COUNTIF(L4:Z4, AB$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AC4" s="1">
-        <f>COUNTIF(M4:AA4, AC$1)</f>
-        <v>3</v>
-      </c>
-      <c r="AD4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA4" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC4" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AD4" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AE4" s="1">
-        <f t="shared" ref="AE4:AE41" si="1">C4*Y4+D4*Z4+E4*AA4+F4*AB4+G4*AC4+(7-H4)*AD4</f>
+        <f t="shared" ref="AE4:AE41" si="6">C4*Y4+D4*Z4+E4*AA4+F4*AB4+G4*AC4+(7-H4)*AD4</f>
         <v>52</v>
       </c>
       <c r="AI4">
@@ -4642,31 +4664,31 @@
         <v>5</v>
       </c>
       <c r="Y5" s="1">
-        <f>COUNTIF(I5:W5, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z5" s="1">
-        <f>COUNTIF(J5:X5, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <f>COUNTIF(K5:Y5, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB5" s="1">
-        <f>COUNTIF(L5:Z5, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC5" s="1">
-        <f>COUNTIF(M5:AA5, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="AI5">
@@ -4756,31 +4778,31 @@
         <v>4</v>
       </c>
       <c r="Y6" s="1">
-        <f>COUNTIF(I6:W6, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z6" s="1">
-        <f>COUNTIF(J6:X6, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <f>COUNTIF(K6:Y6, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB6" s="1">
-        <f>COUNTIF(L6:Z6, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC6" s="1">
-        <f>COUNTIF(M6:AA6, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="AI6">
@@ -4870,31 +4892,31 @@
         <v>6</v>
       </c>
       <c r="Y7" s="1">
-        <f>COUNTIF(I7:W7, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z7" s="1">
-        <f>COUNTIF(J7:X7, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA7" s="1">
-        <f>COUNTIF(K7:Y7, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB7" s="1">
-        <f>COUNTIF(L7:Z7, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AC7" s="1">
-        <f>COUNTIF(M7:AA7, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AI7">
@@ -4984,31 +5006,31 @@
         <v>5</v>
       </c>
       <c r="Y8" s="1">
-        <f>COUNTIF(I8:W8, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <f>COUNTIF(J8:X8, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA8" s="1">
-        <f>COUNTIF(K8:Y8, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB8" s="1">
-        <f>COUNTIF(L8:Z8, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC8" s="1">
-        <f>COUNTIF(M8:AA8, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="AI8">
@@ -5098,31 +5120,31 @@
         <v>5</v>
       </c>
       <c r="Y9" s="1">
-        <f>COUNTIF(I9:W9, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <f>COUNTIF(J9:X9, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <f>COUNTIF(K9:Y9, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB9" s="1">
-        <f>COUNTIF(L9:Z9, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC9" s="1">
-        <f>COUNTIF(M9:AA9, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="AI9">
@@ -5212,31 +5234,31 @@
         <v>2</v>
       </c>
       <c r="Y10" s="1">
-        <f>COUNTIF(I10:W10, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <f>COUNTIF(J10:X10, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA10" s="1">
-        <f>COUNTIF(K10:Y10, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB10" s="1">
-        <f>COUNTIF(L10:Z10, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC10" s="1">
-        <f>COUNTIF(M10:AA10, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="AI10">
@@ -5326,31 +5348,31 @@
         <v>3</v>
       </c>
       <c r="Y11" s="1">
-        <f>COUNTIF(I11:W11, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Z11" s="1">
-        <f>COUNTIF(J11:X11, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA11" s="1">
-        <f>COUNTIF(K11:Y11, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB11" s="1">
-        <f>COUNTIF(L11:Z11, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <f>COUNTIF(M11:AA11, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="AI11">
@@ -5440,31 +5462,31 @@
         <v>6</v>
       </c>
       <c r="Y12" s="1">
-        <f>COUNTIF(I12:W12, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Z12" s="1">
-        <f>COUNTIF(J12:X12, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA12" s="1">
-        <f>COUNTIF(K12:Y12, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB12" s="1">
-        <f>COUNTIF(L12:Z12, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC12" s="1">
-        <f>COUNTIF(M12:AA12, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="AF12">
@@ -5563,31 +5585,31 @@
         <v>7</v>
       </c>
       <c r="Y13" s="1">
-        <f>COUNTIF(I13:W13, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <f>COUNTIF(J13:X13, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA13" s="1">
-        <f>COUNTIF(K13:Y13, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB13" s="1">
-        <f>COUNTIF(L13:Z13, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC13" s="1">
-        <f>COUNTIF(M13:AA13, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="AI13">
@@ -5677,31 +5699,31 @@
         <v>5</v>
       </c>
       <c r="Y14" s="1">
-        <f>COUNTIF(I14:W14, $Y$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
-        <f>COUNTIF(J14:X14, $Z$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AA14" s="1">
-        <f>COUNTIF(K14:Y14, AA$1)</f>
-        <v>4</v>
-      </c>
-      <c r="AB14" s="1">
-        <f>COUNTIF(L14:Z14, AB$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AC14" s="1">
-        <f>COUNTIF(M14:AA14, AC$1)</f>
-        <v>3</v>
-      </c>
-      <c r="AD14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AD14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AE14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="AI14">
@@ -5791,31 +5813,31 @@
         <v>5</v>
       </c>
       <c r="Y15" s="1">
-        <f>COUNTIF(I15:W15, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z15" s="1">
-        <f>COUNTIF(J15:X15, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <f>COUNTIF(K15:Y15, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB15" s="1">
-        <f>COUNTIF(L15:Z15, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC15" s="1">
-        <f>COUNTIF(M15:AA15, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="AI15">
@@ -5905,31 +5927,31 @@
         <v>3</v>
       </c>
       <c r="Y16" s="1">
-        <f>COUNTIF(I16:W16, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z16" s="1">
-        <f>COUNTIF(J16:X16, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <f>COUNTIF(K16:Y16, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB16" s="1">
-        <f>COUNTIF(L16:Z16, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC16" s="1">
-        <f>COUNTIF(M16:AA16, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AI16">
@@ -6019,31 +6041,31 @@
         <v>6</v>
       </c>
       <c r="Y17" s="1">
-        <f>COUNTIF(I17:W17, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z17" s="1">
-        <f>COUNTIF(J17:X17, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA17" s="1">
-        <f>COUNTIF(K17:Y17, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB17" s="1">
-        <f>COUNTIF(L17:Z17, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AC17" s="1">
-        <f>COUNTIF(M17:AA17, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="AI17">
@@ -6133,31 +6155,31 @@
         <v>5</v>
       </c>
       <c r="Y18" s="1">
-        <f>COUNTIF(I18:W18, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z18" s="1">
-        <f>COUNTIF(J18:X18, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA18" s="1">
-        <f>COUNTIF(K18:Y18, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB18" s="1">
-        <f>COUNTIF(L18:Z18, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC18" s="1">
-        <f>COUNTIF(M18:AA18, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" ref="AD18:AD41" si="2">COUNTIF(N18:AB18, AD$1)</f>
+        <f t="shared" ref="AD18:AD41" si="7">COUNTIF(N18:AB18, AD$1)</f>
         <v>2</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="AI18">
@@ -6247,31 +6269,31 @@
         <v>5</v>
       </c>
       <c r="Y19" s="1">
-        <f>COUNTIF(I19:W19, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <f>COUNTIF(J19:X19, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA19" s="1">
-        <f>COUNTIF(K19:Y19, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB19" s="1">
-        <f>COUNTIF(L19:Z19, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC19" s="1">
-        <f>COUNTIF(M19:AA19, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="AI19">
@@ -6361,31 +6383,31 @@
         <v>3</v>
       </c>
       <c r="Y20" s="1">
-        <f>COUNTIF(I20:W20, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z20" s="1">
-        <f>COUNTIF(J20:X20, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <f>COUNTIF(K20:Y20, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB20" s="1">
-        <f>COUNTIF(L20:Z20, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC20" s="1">
-        <f>COUNTIF(M20:AA20, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="AI20">
@@ -6475,31 +6497,31 @@
         <v>6</v>
       </c>
       <c r="Y21" s="1">
-        <f>COUNTIF(I21:W21, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Z21" s="1">
-        <f>COUNTIF(J21:X21, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA21" s="1">
-        <f>COUNTIF(K21:Y21, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB21" s="1">
-        <f>COUNTIF(L21:Z21, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC21" s="1">
-        <f>COUNTIF(M21:AA21, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="AI21">
@@ -6589,31 +6611,31 @@
         <v>5</v>
       </c>
       <c r="Y22" s="1">
-        <f>COUNTIF(I22:W22, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Z22" s="1">
-        <f>COUNTIF(J22:X22, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA22" s="1">
-        <f>COUNTIF(K22:Y22, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB22" s="1">
-        <f>COUNTIF(L22:Z22, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC22" s="1">
-        <f>COUNTIF(M22:AA22, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="AF22">
@@ -6694,31 +6716,31 @@
         <v>6</v>
       </c>
       <c r="Y23" s="1">
-        <f>COUNTIF(I23:W23, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <f>COUNTIF(J23:X23, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA23" s="1">
-        <f>COUNTIF(K23:Y23, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB23" s="1">
-        <f>COUNTIF(L23:Z23, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC23" s="1">
-        <f>COUNTIF(M23:AA23, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
     </row>
@@ -6796,31 +6818,31 @@
         <v>6</v>
       </c>
       <c r="Y24" s="1">
-        <f>COUNTIF(I24:W24, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <f>COUNTIF(J24:X24, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA24" s="1">
-        <f>COUNTIF(K24:Y24, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB24" s="1">
-        <f>COUNTIF(L24:Z24, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC24" s="1">
-        <f>COUNTIF(M24:AA24, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="AI24" t="s">
@@ -6904,31 +6926,31 @@
         <v>5</v>
       </c>
       <c r="Y25" s="1">
-        <f>COUNTIF(I25:W25, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z25" s="1">
-        <f>COUNTIF(J25:X25, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <f>COUNTIF(K25:Y25, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB25" s="1">
-        <f>COUNTIF(L25:Z25, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC25" s="1">
-        <f>COUNTIF(M25:AA25, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
@@ -7006,31 +7028,31 @@
         <v>6</v>
       </c>
       <c r="Y26" s="1">
-        <f>COUNTIF(I26:W26, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z26" s="1">
-        <f>COUNTIF(J26:X26, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA26" s="1">
-        <f>COUNTIF(K26:Y26, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB26" s="1">
-        <f>COUNTIF(L26:Z26, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC26" s="1">
-        <f>COUNTIF(M26:AA26, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="AI26" t="s">
@@ -7132,31 +7154,31 @@
         <v>4</v>
       </c>
       <c r="Y27" s="1">
-        <f>COUNTIF(I27:W27, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z27" s="1">
-        <f>COUNTIF(J27:X27, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA27" s="1">
-        <f>COUNTIF(K27:Y27, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB27" s="1">
-        <f>COUNTIF(L27:Z27, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AC27" s="1">
-        <f>COUNTIF(M27:AA27, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="AI27" s="4" t="s">
@@ -7246,31 +7268,31 @@
         <v>5</v>
       </c>
       <c r="Y28" s="1">
-        <f>COUNTIF(I28:W28, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z28" s="1">
-        <f>COUNTIF(J28:X28, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA28" s="1">
-        <f>COUNTIF(K28:Y28, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB28" s="1">
-        <f>COUNTIF(L28:Z28, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC28" s="1">
-        <f>COUNTIF(M28:AA28, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="AI28" s="3" t="s">
@@ -7372,31 +7394,31 @@
         <v>6</v>
       </c>
       <c r="Y29" s="1">
-        <f>COUNTIF(I29:W29, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <f>COUNTIF(J29:X29, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA29" s="1">
-        <f>COUNTIF(K29:Y29, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB29" s="1">
-        <f>COUNTIF(L29:Z29, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC29" s="1">
-        <f>COUNTIF(M29:AA29, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="AI29" s="3" t="s">
@@ -7498,31 +7520,31 @@
         <v>6</v>
       </c>
       <c r="Y30" s="1">
-        <f>COUNTIF(I30:W30, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <f>COUNTIF(J30:X30, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA30" s="1">
-        <f>COUNTIF(K30:Y30, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB30" s="1">
-        <f>COUNTIF(L30:Z30, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC30" s="1">
-        <f>COUNTIF(M30:AA30, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AI30" s="3" t="s">
@@ -7624,31 +7646,31 @@
         <v>6</v>
       </c>
       <c r="Y31" s="1">
-        <f>COUNTIF(I31:W31, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z31" s="1">
-        <f>COUNTIF(J31:X31, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA31" s="1">
-        <f>COUNTIF(K31:Y31, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB31" s="1">
-        <f>COUNTIF(L31:Z31, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC31" s="1">
-        <f>COUNTIF(M31:AA31, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="AI31" s="3" t="s">
@@ -7750,31 +7772,31 @@
         <v>6</v>
       </c>
       <c r="Y32" s="1">
-        <f>COUNTIF(I32:W32, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Z32" s="1">
-        <f>COUNTIF(J32:X32, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA32" s="1">
-        <f>COUNTIF(K32:Y32, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB32" s="1">
-        <f>COUNTIF(L32:Z32, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC32" s="1">
-        <f>COUNTIF(M32:AA32, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="AF32">
@@ -7863,31 +7885,31 @@
         <v>6</v>
       </c>
       <c r="Y33" s="1">
-        <f>COUNTIF(I33:W33, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <f>COUNTIF(J33:X33, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA33" s="1">
-        <f>COUNTIF(K33:Y33, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB33" s="1">
-        <f>COUNTIF(L33:Z33, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC33" s="1">
-        <f>COUNTIF(M33:AA33, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AI33" s="4" t="s">
@@ -7977,31 +7999,31 @@
         <v>6</v>
       </c>
       <c r="Y34" s="1">
-        <f>COUNTIF(I34:W34, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <f>COUNTIF(J34:X34, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA34" s="1">
-        <f>COUNTIF(K34:Y34, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB34" s="1">
-        <f>COUNTIF(L34:Z34, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC34" s="1">
-        <f>COUNTIF(M34:AA34, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AE34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="AI34" s="3" t="s">
@@ -8103,31 +8125,31 @@
         <v>6</v>
       </c>
       <c r="Y35" s="1">
-        <f>COUNTIF(I35:W35, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z35" s="1">
-        <f>COUNTIF(J35:X35, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <f>COUNTIF(K35:Y35, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB35" s="1">
-        <f>COUNTIF(L35:Z35, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC35" s="1">
-        <f>COUNTIF(M35:AA35, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AI35" s="3" t="s">
@@ -8229,31 +8251,31 @@
         <v>5</v>
       </c>
       <c r="Y36" s="1">
-        <f>COUNTIF(I36:W36, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z36" s="1">
-        <f>COUNTIF(J36:X36, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA36" s="1">
-        <f>COUNTIF(K36:Y36, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB36" s="1">
-        <f>COUNTIF(L36:Z36, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC36" s="1">
-        <f>COUNTIF(M36:AA36, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="AI36" s="3" t="s">
@@ -8355,31 +8377,31 @@
         <v>4</v>
       </c>
       <c r="Y37" s="1">
-        <f>COUNTIF(I37:W37, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z37" s="1">
-        <f>COUNTIF(J37:X37, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA37" s="1">
-        <f>COUNTIF(K37:Y37, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB37" s="1">
-        <f>COUNTIF(L37:Z37, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC37" s="1">
-        <f>COUNTIF(M37:AA37, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="AI37" s="3" t="s">
@@ -8481,31 +8503,31 @@
         <v>6</v>
       </c>
       <c r="Y38" s="1">
-        <f>COUNTIF(I38:W38, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Z38" s="1">
-        <f>COUNTIF(J38:X38, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA38" s="1">
-        <f>COUNTIF(K38:Y38, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB38" s="1">
-        <f>COUNTIF(L38:Z38, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC38" s="1">
-        <f>COUNTIF(M38:AA38, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="AI38" s="3"/>
@@ -8591,31 +8613,31 @@
         <v>6</v>
       </c>
       <c r="Y39" s="1">
-        <f>COUNTIF(I39:W39, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z39" s="1">
-        <f>COUNTIF(J39:X39, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA39" s="1">
-        <f>COUNTIF(K39:Y39, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB39" s="1">
-        <f>COUNTIF(L39:Z39, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC39" s="1">
-        <f>COUNTIF(M39:AA39, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="AI39" s="4" t="s">
@@ -8705,31 +8727,31 @@
         <v>5</v>
       </c>
       <c r="Y40" s="1">
-        <f>COUNTIF(I40:W40, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z40" s="1">
-        <f>COUNTIF(J40:X40, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA40" s="1">
-        <f>COUNTIF(K40:Y40, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB40" s="1">
-        <f>COUNTIF(L40:Z40, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC40" s="1">
-        <f>COUNTIF(M40:AA40, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="AI40" s="3" t="s">
@@ -8827,31 +8849,31 @@
         <v>6</v>
       </c>
       <c r="Y41" s="1">
-        <f>COUNTIF(I41:W41, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z41" s="1">
-        <f>COUNTIF(J41:X41, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA41" s="1">
-        <f>COUNTIF(K41:Y41, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB41" s="1">
-        <f>COUNTIF(L41:Z41, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC41" s="1">
-        <f>COUNTIF(M41:AA41, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="AI41" s="3" t="s">

--- a/Assets/DataProcessing/NASA results.xlsx
+++ b/Assets/DataProcessing/NASA results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Keyboard\Assets\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44F8B63-0855-43A9-9ACC-EC9891CE459C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4580CC9-D541-4449-95E9-57CC8D24D6E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13212" xr2:uid="{9F19923B-91C2-47BC-B5DD-C687093A0B9A}"/>
   </bookViews>
@@ -19,20 +19,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$1</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$X$12:$X$21</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$X$22:$X$31</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$X$2:$X$11</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$X$32:$X$41</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$AE$32:$AE$41</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$AE$32:$AE$41</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$X$2:$X$11</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$X$32:$X$41</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$AE$2:$AE$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$AE$32:$AE$41</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$X$12:$X$21</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$X$22:$X$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$X$12:$X$21</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$X$22:$X$31</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$X$2:$X$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$X$32:$X$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$AE$12:$AE$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$AE$22:$AE$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -410,432 +410,6 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{73349534-8BE2-4B47-863F-3F846F031FDD}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>SKPad</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{00000006-513B-4E12-BF9A-15A55363E20A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>SKPad-Ov</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{00000007-513B-4E12-BF9A-15A55363E20A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>FanPad</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{00000008-513B-4E12-BF9A-15A55363E20A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>FanPad-Ov</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="1" outliers="1"/>
-            <cx:statistics quartileMethod="inclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="0.100000001"/>
-        <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling max="70" min="20"/>
-        <cx:title>
-          <cx:tx>
-            <cx:rich>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1400" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Rating</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </cx:rich>
-          </cx:tx>
-        </cx:title>
-        <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1200" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
-  </cx:chart>
-  <cx:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-    </a:ln>
-  </cx:spPr>
-  <cx:printSettings>
-    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
-    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  </cx:printSettings>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{73349534-8BE2-4B47-863F-3F846F031FDD}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>SKPad</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{00000006-513B-4E12-BF9A-15A55363E20A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>SKPad-Ov</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{00000007-513B-4E12-BF9A-15A55363E20A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>FanPad</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{00000008-513B-4E12-BF9A-15A55363E20A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>FanPad-Ov</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="1" outliers="1"/>
-            <cx:statistics quartileMethod="inclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="0.100000001"/>
-        <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling max="7" min="2"/>
-        <cx:title>
-          <cx:tx>
-            <cx:rich>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1400" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Rating</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </cx:rich>
-          </cx:tx>
-        </cx:title>
-        <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1200" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
-  </cx:chart>
-  <cx:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-    </a:ln>
-  </cx:spPr>
-  <cx:printSettings>
-    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
-    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  </cx:printSettings>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
         <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
@@ -1044,7 +618,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -1065,6 +639,432 @@
     <cx:data id="3">
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{73349534-8BE2-4B47-863F-3F846F031FDD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>SKPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000006-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>SKPad-Ov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000007-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>FanPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000008-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>FanPad-Ov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="900" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="7" min="2"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Rating</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{73349534-8BE2-4B47-863F-3F846F031FDD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>SKPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000006-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>SKPad-Ov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000007-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>FanPad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000008-513B-4E12-BF9A-15A55363E20A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>FanPad-Ov</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="900" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="70" min="20"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Rating</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4099,10 +4099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19793E4-070C-4B97-81ED-6A026E10A8D7}">
-  <dimension ref="A1:AW53"/>
+  <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="N13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT57" sqref="AT57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4291,27 +4291,27 @@
         <v>5</v>
       </c>
       <c r="Y2" s="1">
-        <f>COUNTIF(I2:W2, $Y$1)</f>
+        <f t="shared" ref="Y2:Y41" si="0">COUNTIF(I2:W2, $Y$1)</f>
         <v>2</v>
       </c>
       <c r="Z2" s="1">
-        <f>COUNTIF(J2:X2, $Z$1)</f>
+        <f t="shared" ref="Z2:Z41" si="1">COUNTIF(J2:X2, $Z$1)</f>
         <v>3</v>
       </c>
       <c r="AA2" s="1">
-        <f>COUNTIF(K2:Y2, AA$1)</f>
+        <f t="shared" ref="AA2:AA41" si="2">COUNTIF(K2:Y2, AA$1)</f>
         <v>5</v>
       </c>
       <c r="AB2" s="1">
-        <f>COUNTIF(L2:Z2, AB$1)</f>
+        <f t="shared" ref="AB2:AB41" si="3">COUNTIF(L2:Z2, AB$1)</f>
         <v>2</v>
       </c>
       <c r="AC2" s="1">
-        <f>COUNTIF(M2:AA2, AC$1)</f>
+        <f t="shared" ref="AC2:AC41" si="4">COUNTIF(M2:AA2, AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <f t="shared" ref="AD2:AD17" si="0">COUNTIF(N2:AB2, AD$1)</f>
+        <f t="shared" ref="AD2:AD17" si="5">COUNTIF(N2:AB2, AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE2" s="1">
@@ -4414,27 +4414,27 @@
         <v>6</v>
       </c>
       <c r="Y3" s="1">
-        <f>COUNTIF(I3:W3, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <f>COUNTIF(J3:X3, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA3" s="1">
-        <f>COUNTIF(K3:Y3, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB3" s="1">
-        <f>COUNTIF(L3:Z3, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC3" s="1">
-        <f>COUNTIF(M3:AA3, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE3" s="1">
@@ -4528,31 +4528,31 @@
         <v>5</v>
       </c>
       <c r="Y4" s="1">
-        <f>COUNTIF(I4:W4, $Y$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1">
-        <f>COUNTIF(J4:X4, $Z$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AA4" s="1">
-        <f>COUNTIF(K4:Y4, AA$1)</f>
-        <v>5</v>
-      </c>
-      <c r="AB4" s="1">
-        <f>COUNTIF(L4:Z4, AB$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AC4" s="1">
-        <f>COUNTIF(M4:AA4, AC$1)</f>
-        <v>3</v>
-      </c>
-      <c r="AD4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA4" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC4" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AD4" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AE4" s="1">
-        <f t="shared" ref="AE4:AE41" si="1">C4*Y4+D4*Z4+E4*AA4+F4*AB4+G4*AC4+(7-H4)*AD4</f>
+        <f t="shared" ref="AE4:AE41" si="6">C4*Y4+D4*Z4+E4*AA4+F4*AB4+G4*AC4+(7-H4)*AD4</f>
         <v>52</v>
       </c>
       <c r="AI4">
@@ -4642,31 +4642,31 @@
         <v>5</v>
       </c>
       <c r="Y5" s="1">
-        <f>COUNTIF(I5:W5, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z5" s="1">
-        <f>COUNTIF(J5:X5, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <f>COUNTIF(K5:Y5, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB5" s="1">
-        <f>COUNTIF(L5:Z5, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC5" s="1">
-        <f>COUNTIF(M5:AA5, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="AI5">
@@ -4756,31 +4756,31 @@
         <v>4</v>
       </c>
       <c r="Y6" s="1">
-        <f>COUNTIF(I6:W6, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z6" s="1">
-        <f>COUNTIF(J6:X6, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <f>COUNTIF(K6:Y6, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB6" s="1">
-        <f>COUNTIF(L6:Z6, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC6" s="1">
-        <f>COUNTIF(M6:AA6, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="AI6">
@@ -4870,31 +4870,31 @@
         <v>6</v>
       </c>
       <c r="Y7" s="1">
-        <f>COUNTIF(I7:W7, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z7" s="1">
-        <f>COUNTIF(J7:X7, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA7" s="1">
-        <f>COUNTIF(K7:Y7, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB7" s="1">
-        <f>COUNTIF(L7:Z7, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AC7" s="1">
-        <f>COUNTIF(M7:AA7, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AI7">
@@ -4984,31 +4984,31 @@
         <v>5</v>
       </c>
       <c r="Y8" s="1">
-        <f>COUNTIF(I8:W8, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <f>COUNTIF(J8:X8, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA8" s="1">
-        <f>COUNTIF(K8:Y8, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB8" s="1">
-        <f>COUNTIF(L8:Z8, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC8" s="1">
-        <f>COUNTIF(M8:AA8, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="AI8">
@@ -5098,31 +5098,31 @@
         <v>5</v>
       </c>
       <c r="Y9" s="1">
-        <f>COUNTIF(I9:W9, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <f>COUNTIF(J9:X9, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <f>COUNTIF(K9:Y9, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB9" s="1">
-        <f>COUNTIF(L9:Z9, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC9" s="1">
-        <f>COUNTIF(M9:AA9, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="AI9">
@@ -5212,31 +5212,31 @@
         <v>2</v>
       </c>
       <c r="Y10" s="1">
-        <f>COUNTIF(I10:W10, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <f>COUNTIF(J10:X10, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA10" s="1">
-        <f>COUNTIF(K10:Y10, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB10" s="1">
-        <f>COUNTIF(L10:Z10, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC10" s="1">
-        <f>COUNTIF(M10:AA10, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="AI10">
@@ -5326,31 +5326,31 @@
         <v>3</v>
       </c>
       <c r="Y11" s="1">
-        <f>COUNTIF(I11:W11, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Z11" s="1">
-        <f>COUNTIF(J11:X11, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA11" s="1">
-        <f>COUNTIF(K11:Y11, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB11" s="1">
-        <f>COUNTIF(L11:Z11, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <f>COUNTIF(M11:AA11, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="AI11">
@@ -5440,31 +5440,31 @@
         <v>6</v>
       </c>
       <c r="Y12" s="1">
-        <f>COUNTIF(I12:W12, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Z12" s="1">
-        <f>COUNTIF(J12:X12, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA12" s="1">
-        <f>COUNTIF(K12:Y12, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB12" s="1">
-        <f>COUNTIF(L12:Z12, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC12" s="1">
-        <f>COUNTIF(M12:AA12, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="AF12">
@@ -5563,31 +5563,31 @@
         <v>7</v>
       </c>
       <c r="Y13" s="1">
-        <f>COUNTIF(I13:W13, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <f>COUNTIF(J13:X13, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA13" s="1">
-        <f>COUNTIF(K13:Y13, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB13" s="1">
-        <f>COUNTIF(L13:Z13, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC13" s="1">
-        <f>COUNTIF(M13:AA13, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="AI13">
@@ -5677,31 +5677,31 @@
         <v>5</v>
       </c>
       <c r="Y14" s="1">
-        <f>COUNTIF(I14:W14, $Y$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
-        <f>COUNTIF(J14:X14, $Z$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AA14" s="1">
-        <f>COUNTIF(K14:Y14, AA$1)</f>
-        <v>4</v>
-      </c>
-      <c r="AB14" s="1">
-        <f>COUNTIF(L14:Z14, AB$1)</f>
-        <v>2</v>
-      </c>
-      <c r="AC14" s="1">
-        <f>COUNTIF(M14:AA14, AC$1)</f>
-        <v>3</v>
-      </c>
-      <c r="AD14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AD14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AE14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="AI14">
@@ -5791,31 +5791,31 @@
         <v>5</v>
       </c>
       <c r="Y15" s="1">
-        <f>COUNTIF(I15:W15, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z15" s="1">
-        <f>COUNTIF(J15:X15, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <f>COUNTIF(K15:Y15, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB15" s="1">
-        <f>COUNTIF(L15:Z15, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC15" s="1">
-        <f>COUNTIF(M15:AA15, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="AI15">
@@ -5905,31 +5905,31 @@
         <v>3</v>
       </c>
       <c r="Y16" s="1">
-        <f>COUNTIF(I16:W16, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z16" s="1">
-        <f>COUNTIF(J16:X16, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <f>COUNTIF(K16:Y16, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB16" s="1">
-        <f>COUNTIF(L16:Z16, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC16" s="1">
-        <f>COUNTIF(M16:AA16, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AI16">
@@ -6019,31 +6019,31 @@
         <v>6</v>
       </c>
       <c r="Y17" s="1">
-        <f>COUNTIF(I17:W17, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z17" s="1">
-        <f>COUNTIF(J17:X17, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA17" s="1">
-        <f>COUNTIF(K17:Y17, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB17" s="1">
-        <f>COUNTIF(L17:Z17, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AC17" s="1">
-        <f>COUNTIF(M17:AA17, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="AI17">
@@ -6133,31 +6133,31 @@
         <v>5</v>
       </c>
       <c r="Y18" s="1">
-        <f>COUNTIF(I18:W18, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z18" s="1">
-        <f>COUNTIF(J18:X18, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA18" s="1">
-        <f>COUNTIF(K18:Y18, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB18" s="1">
-        <f>COUNTIF(L18:Z18, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC18" s="1">
-        <f>COUNTIF(M18:AA18, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" ref="AD18:AD41" si="2">COUNTIF(N18:AB18, AD$1)</f>
+        <f t="shared" ref="AD18:AD41" si="7">COUNTIF(N18:AB18, AD$1)</f>
         <v>2</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="AI18">
@@ -6247,31 +6247,31 @@
         <v>5</v>
       </c>
       <c r="Y19" s="1">
-        <f>COUNTIF(I19:W19, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <f>COUNTIF(J19:X19, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA19" s="1">
-        <f>COUNTIF(K19:Y19, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB19" s="1">
-        <f>COUNTIF(L19:Z19, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC19" s="1">
-        <f>COUNTIF(M19:AA19, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="AI19">
@@ -6361,31 +6361,31 @@
         <v>3</v>
       </c>
       <c r="Y20" s="1">
-        <f>COUNTIF(I20:W20, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z20" s="1">
-        <f>COUNTIF(J20:X20, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <f>COUNTIF(K20:Y20, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB20" s="1">
-        <f>COUNTIF(L20:Z20, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC20" s="1">
-        <f>COUNTIF(M20:AA20, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="AI20">
@@ -6475,31 +6475,31 @@
         <v>6</v>
       </c>
       <c r="Y21" s="1">
-        <f>COUNTIF(I21:W21, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Z21" s="1">
-        <f>COUNTIF(J21:X21, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA21" s="1">
-        <f>COUNTIF(K21:Y21, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB21" s="1">
-        <f>COUNTIF(L21:Z21, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC21" s="1">
-        <f>COUNTIF(M21:AA21, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="AI21">
@@ -6589,31 +6589,31 @@
         <v>5</v>
       </c>
       <c r="Y22" s="1">
-        <f>COUNTIF(I22:W22, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Z22" s="1">
-        <f>COUNTIF(J22:X22, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA22" s="1">
-        <f>COUNTIF(K22:Y22, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB22" s="1">
-        <f>COUNTIF(L22:Z22, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC22" s="1">
-        <f>COUNTIF(M22:AA22, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="AF22">
@@ -6694,31 +6694,31 @@
         <v>6</v>
       </c>
       <c r="Y23" s="1">
-        <f>COUNTIF(I23:W23, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <f>COUNTIF(J23:X23, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA23" s="1">
-        <f>COUNTIF(K23:Y23, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB23" s="1">
-        <f>COUNTIF(L23:Z23, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC23" s="1">
-        <f>COUNTIF(M23:AA23, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
     </row>
@@ -6796,31 +6796,31 @@
         <v>6</v>
       </c>
       <c r="Y24" s="1">
-        <f>COUNTIF(I24:W24, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <f>COUNTIF(J24:X24, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA24" s="1">
-        <f>COUNTIF(K24:Y24, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB24" s="1">
-        <f>COUNTIF(L24:Z24, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC24" s="1">
-        <f>COUNTIF(M24:AA24, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="AI24" t="s">
@@ -6904,31 +6904,31 @@
         <v>5</v>
       </c>
       <c r="Y25" s="1">
-        <f>COUNTIF(I25:W25, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z25" s="1">
-        <f>COUNTIF(J25:X25, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <f>COUNTIF(K25:Y25, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB25" s="1">
-        <f>COUNTIF(L25:Z25, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC25" s="1">
-        <f>COUNTIF(M25:AA25, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
@@ -7006,31 +7006,31 @@
         <v>6</v>
       </c>
       <c r="Y26" s="1">
-        <f>COUNTIF(I26:W26, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z26" s="1">
-        <f>COUNTIF(J26:X26, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA26" s="1">
-        <f>COUNTIF(K26:Y26, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB26" s="1">
-        <f>COUNTIF(L26:Z26, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC26" s="1">
-        <f>COUNTIF(M26:AA26, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="AI26" t="s">
@@ -7132,31 +7132,31 @@
         <v>4</v>
       </c>
       <c r="Y27" s="1">
-        <f>COUNTIF(I27:W27, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z27" s="1">
-        <f>COUNTIF(J27:X27, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA27" s="1">
-        <f>COUNTIF(K27:Y27, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB27" s="1">
-        <f>COUNTIF(L27:Z27, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AC27" s="1">
-        <f>COUNTIF(M27:AA27, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="AI27" s="4" t="s">
@@ -7246,31 +7246,31 @@
         <v>5</v>
       </c>
       <c r="Y28" s="1">
-        <f>COUNTIF(I28:W28, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z28" s="1">
-        <f>COUNTIF(J28:X28, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA28" s="1">
-        <f>COUNTIF(K28:Y28, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB28" s="1">
-        <f>COUNTIF(L28:Z28, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC28" s="1">
-        <f>COUNTIF(M28:AA28, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="AI28" s="3" t="s">
@@ -7372,31 +7372,31 @@
         <v>6</v>
       </c>
       <c r="Y29" s="1">
-        <f>COUNTIF(I29:W29, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <f>COUNTIF(J29:X29, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA29" s="1">
-        <f>COUNTIF(K29:Y29, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB29" s="1">
-        <f>COUNTIF(L29:Z29, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC29" s="1">
-        <f>COUNTIF(M29:AA29, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="AI29" s="3" t="s">
@@ -7498,31 +7498,31 @@
         <v>6</v>
       </c>
       <c r="Y30" s="1">
-        <f>COUNTIF(I30:W30, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <f>COUNTIF(J30:X30, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA30" s="1">
-        <f>COUNTIF(K30:Y30, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB30" s="1">
-        <f>COUNTIF(L30:Z30, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC30" s="1">
-        <f>COUNTIF(M30:AA30, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AI30" s="3" t="s">
@@ -7624,31 +7624,31 @@
         <v>6</v>
       </c>
       <c r="Y31" s="1">
-        <f>COUNTIF(I31:W31, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z31" s="1">
-        <f>COUNTIF(J31:X31, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA31" s="1">
-        <f>COUNTIF(K31:Y31, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB31" s="1">
-        <f>COUNTIF(L31:Z31, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC31" s="1">
-        <f>COUNTIF(M31:AA31, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="AI31" s="3" t="s">
@@ -7750,31 +7750,31 @@
         <v>6</v>
       </c>
       <c r="Y32" s="1">
-        <f>COUNTIF(I32:W32, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Z32" s="1">
-        <f>COUNTIF(J32:X32, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA32" s="1">
-        <f>COUNTIF(K32:Y32, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB32" s="1">
-        <f>COUNTIF(L32:Z32, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC32" s="1">
-        <f>COUNTIF(M32:AA32, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="AF32">
@@ -7863,31 +7863,31 @@
         <v>6</v>
       </c>
       <c r="Y33" s="1">
-        <f>COUNTIF(I33:W33, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <f>COUNTIF(J33:X33, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA33" s="1">
-        <f>COUNTIF(K33:Y33, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB33" s="1">
-        <f>COUNTIF(L33:Z33, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC33" s="1">
-        <f>COUNTIF(M33:AA33, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AI33" s="4" t="s">
@@ -7977,31 +7977,31 @@
         <v>6</v>
       </c>
       <c r="Y34" s="1">
-        <f>COUNTIF(I34:W34, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <f>COUNTIF(J34:X34, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA34" s="1">
-        <f>COUNTIF(K34:Y34, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB34" s="1">
-        <f>COUNTIF(L34:Z34, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC34" s="1">
-        <f>COUNTIF(M34:AA34, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AE34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="AI34" s="3" t="s">
@@ -8103,31 +8103,31 @@
         <v>6</v>
       </c>
       <c r="Y35" s="1">
-        <f>COUNTIF(I35:W35, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z35" s="1">
-        <f>COUNTIF(J35:X35, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <f>COUNTIF(K35:Y35, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB35" s="1">
-        <f>COUNTIF(L35:Z35, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC35" s="1">
-        <f>COUNTIF(M35:AA35, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AI35" s="3" t="s">
@@ -8229,31 +8229,31 @@
         <v>5</v>
       </c>
       <c r="Y36" s="1">
-        <f>COUNTIF(I36:W36, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z36" s="1">
-        <f>COUNTIF(J36:X36, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA36" s="1">
-        <f>COUNTIF(K36:Y36, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB36" s="1">
-        <f>COUNTIF(L36:Z36, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC36" s="1">
-        <f>COUNTIF(M36:AA36, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="AI36" s="3" t="s">
@@ -8355,31 +8355,31 @@
         <v>4</v>
       </c>
       <c r="Y37" s="1">
-        <f>COUNTIF(I37:W37, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z37" s="1">
-        <f>COUNTIF(J37:X37, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA37" s="1">
-        <f>COUNTIF(K37:Y37, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB37" s="1">
-        <f>COUNTIF(L37:Z37, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC37" s="1">
-        <f>COUNTIF(M37:AA37, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="AI37" s="3" t="s">
@@ -8481,31 +8481,31 @@
         <v>6</v>
       </c>
       <c r="Y38" s="1">
-        <f>COUNTIF(I38:W38, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Z38" s="1">
-        <f>COUNTIF(J38:X38, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA38" s="1">
-        <f>COUNTIF(K38:Y38, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB38" s="1">
-        <f>COUNTIF(L38:Z38, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC38" s="1">
-        <f>COUNTIF(M38:AA38, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="AI38" s="3"/>
@@ -8591,31 +8591,31 @@
         <v>6</v>
       </c>
       <c r="Y39" s="1">
-        <f>COUNTIF(I39:W39, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z39" s="1">
-        <f>COUNTIF(J39:X39, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA39" s="1">
-        <f>COUNTIF(K39:Y39, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB39" s="1">
-        <f>COUNTIF(L39:Z39, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC39" s="1">
-        <f>COUNTIF(M39:AA39, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="AI39" s="4" t="s">
@@ -8705,31 +8705,31 @@
         <v>5</v>
       </c>
       <c r="Y40" s="1">
-        <f>COUNTIF(I40:W40, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z40" s="1">
-        <f>COUNTIF(J40:X40, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA40" s="1">
-        <f>COUNTIF(K40:Y40, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB40" s="1">
-        <f>COUNTIF(L40:Z40, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC40" s="1">
-        <f>COUNTIF(M40:AA40, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AE40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="AI40" s="3" t="s">
@@ -8827,31 +8827,31 @@
         <v>6</v>
       </c>
       <c r="Y41" s="1">
-        <f>COUNTIF(I41:W41, $Y$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z41" s="1">
-        <f>COUNTIF(J41:X41, $Z$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA41" s="1">
-        <f>COUNTIF(K41:Y41, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB41" s="1">
-        <f>COUNTIF(L41:Z41, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC41" s="1">
-        <f>COUNTIF(M41:AA41, AC$1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AE41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="AI41" s="3" t="s">
@@ -9209,6 +9209,36 @@
       <c r="AV53" s="5"/>
       <c r="AW53" s="5"/>
     </row>
+    <row r="57" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ57" s="1">
+        <f>AJ48/(AJ48+AJ51)</f>
+        <v>3.6903731377286269E-3</v>
+      </c>
+      <c r="AR57" s="1">
+        <f>AR48/(AR48+AR51)</f>
+        <v>2.3017902813299376E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ58" s="1">
+        <f>AJ49/(AJ49+AJ51)</f>
+        <v>8.4688125022040345E-3</v>
+      </c>
+      <c r="AR58" s="1">
+        <f>AR49/(AR49+AR51)</f>
+        <v>0.1136890951276099</v>
+      </c>
+    </row>
+    <row r="59" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ59" s="1">
+        <f>AJ50/(AJ50+AJ51)</f>
+        <v>1.4662533421950076E-3</v>
+      </c>
+      <c r="AR59" s="1">
+        <f>AR50/(AR50+AR51)</f>
+        <v>1.0362694300518645E-2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AC1" xr:uid="{489AD9E5-7ED2-4068-B2EE-1C91F2A099EF}">
     <sortState ref="A2:AC41">
